--- a/ausarbeitung/datensatz1.xlsx
+++ b/ausarbeitung/datensatz1.xlsx
@@ -8,26 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\post_\Documents\Uni\Masterarbeit\waldemar\ausarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F75E0F0-B017-4F41-8559-04FD05031133}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A55716-28B1-42CF-BDEF-161D424E2CB2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
-    <sheet name="Daten_Alter" sheetId="7" r:id="rId2"/>
-    <sheet name="Fragen" sheetId="3" r:id="rId3"/>
-    <sheet name="Antworten" sheetId="4" r:id="rId4"/>
-    <sheet name="Kontakte" sheetId="2" r:id="rId5"/>
+    <sheet name="Daten_Altersgruppen" sheetId="7" r:id="rId2"/>
+    <sheet name="Grafiken_Altersgruppen" sheetId="8" r:id="rId3"/>
+    <sheet name="Fragen" sheetId="3" r:id="rId4"/>
+    <sheet name="Antworten" sheetId="4" r:id="rId5"/>
+    <sheet name="Kontakte" sheetId="2" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6652" uniqueCount="532">
   <si>
     <t>CASE</t>
   </si>
@@ -1662,6 +1660,9 @@
   </si>
   <si>
     <t>Gesamt kinderlos</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -2235,196 +2236,2301 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Daten"/>
-      <sheetName val="Grafiken_Daten"/>
-      <sheetName val="Daten_Faehigkeiten"/>
-      <sheetName val="Grafiken_Faehigkeiten"/>
-      <sheetName val="Daten_Traumapp"/>
-      <sheetName val="Grafiken_Traumapp"/>
-      <sheetName val="Fragen"/>
-      <sheetName val="Antworten"/>
-      <sheetName val="Kontakte"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>unter 3</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>2</v>
-          </cell>
-          <cell r="C79">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>drei Jahre</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>9</v>
-          </cell>
-          <cell r="C82">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>vier Jahre</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>9</v>
-          </cell>
-          <cell r="C85">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>fünf Jahre</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>8</v>
-          </cell>
-          <cell r="C88">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v>sechs Jahre</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>7</v>
-          </cell>
-          <cell r="C91">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93" t="str">
-            <v>sieben Jahre</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>4</v>
-          </cell>
-          <cell r="C94">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96" t="str">
-            <v>acht Jahre</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>1</v>
-          </cell>
-          <cell r="C97">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>neun Jahre</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>2</v>
-          </cell>
-          <cell r="C100">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>zehn Jahre und älter</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>4</v>
-          </cell>
-          <cell r="C103">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Bewertung</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> des gemeinsamen Spielens von App-Spielen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Eltern (unter 20 bis 29)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Daten_Altersgruppen!$AC$128,Daten_Altersgruppen!$AC$134,Daten_Altersgruppen!$AC$140,Daten_Altersgruppen!$AC$146,Daten_Altersgruppen!$AC$152)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Unpassend</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>eher unpassend</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eher passend</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sehr passend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Daten_Altersgruppen!$AG$92,Daten_Altersgruppen!$AG$98,Daten_Altersgruppen!$AG$104,Daten_Altersgruppen!$AG$110,Daten_Altersgruppen!$AG$116)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1CA4-499C-B417-799EBC57221B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Kinderlose (unter 20 bis 29)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Daten_Altersgruppen!$AC$128,Daten_Altersgruppen!$AC$134,Daten_Altersgruppen!$AC$140,Daten_Altersgruppen!$AC$146,Daten_Altersgruppen!$AC$152)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Unpassend</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>eher unpassend</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eher passend</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sehr passend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Daten_Altersgruppen!$AG$94,Daten_Altersgruppen!$AG$100,Daten_Altersgruppen!$AG$106,Daten_Altersgruppen!$AG$112,Daten_Altersgruppen!$AG$118)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1CA4-499C-B417-799EBC57221B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Eltern (30-39)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Daten_Altersgruppen!$AC$128,Daten_Altersgruppen!$AC$134,Daten_Altersgruppen!$AC$140,Daten_Altersgruppen!$AC$146,Daten_Altersgruppen!$AC$152)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Unpassend</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>eher unpassend</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eher passend</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sehr passend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Daten_Altersgruppen!$AG$130,Daten_Altersgruppen!$AG$136,Daten_Altersgruppen!$AG$142,Daten_Altersgruppen!$AG$148,Daten_Altersgruppen!$AG$154)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19047619047619047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23809523809523808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19047619047619047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7619047619047616E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1CA4-499C-B417-799EBC57221B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Kinderlose (30-39)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Daten_Altersgruppen!$AC$128,Daten_Altersgruppen!$AC$134,Daten_Altersgruppen!$AC$140,Daten_Altersgruppen!$AC$146,Daten_Altersgruppen!$AC$152)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Unpassend</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>eher unpassend</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eher passend</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sehr passend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Daten_Altersgruppen!$AG$132,Daten_Altersgruppen!$AG$138,Daten_Altersgruppen!$AG$144,Daten_Altersgruppen!$AG$150,Daten_Altersgruppen!$AG$156)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1CA4-499C-B417-799EBC57221B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="510327256"/>
+        <c:axId val="510327584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="510327256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510327584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="510327584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510327256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Bewertung</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> des Spielens von App-Spielen allein</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Eltern (unter 20 bis 29)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Daten_Altersgruppen!$AC$128,Daten_Altersgruppen!$AC$134,Daten_Altersgruppen!$AC$140,Daten_Altersgruppen!$AC$146,Daten_Altersgruppen!$AC$152)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Unpassend</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>eher unpassend</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eher passend</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sehr passend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Daten_Altersgruppen!$AL$92,Daten_Altersgruppen!$AL$98,Daten_Altersgruppen!$AL$104,Daten_Altersgruppen!$AL$110,Daten_Altersgruppen!$AL$116)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCB6-4E9A-8CE5-481B0F59C0FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Kinderlose (unter 20 bis 29)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Daten_Altersgruppen!$AC$128,Daten_Altersgruppen!$AC$134,Daten_Altersgruppen!$AC$140,Daten_Altersgruppen!$AC$146,Daten_Altersgruppen!$AC$152)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Unpassend</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>eher unpassend</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eher passend</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sehr passend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Daten_Altersgruppen!$AL$94,Daten_Altersgruppen!$AL$100,Daten_Altersgruppen!$AL$106,Daten_Altersgruppen!$AL$112,Daten_Altersgruppen!$AL$118)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FCB6-4E9A-8CE5-481B0F59C0FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Eltern (30-39)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Daten_Altersgruppen!$AC$128,Daten_Altersgruppen!$AC$134,Daten_Altersgruppen!$AC$140,Daten_Altersgruppen!$AC$146,Daten_Altersgruppen!$AC$152)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Unpassend</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>eher unpassend</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eher passend</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sehr passend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Daten_Altersgruppen!$AL$130,Daten_Altersgruppen!$AL$136,Daten_Altersgruppen!$AL$142,Daten_Altersgruppen!$AL$148,Daten_Altersgruppen!$AL$154)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.52380952380952384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5238095238095233E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5238095238095233E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FCB6-4E9A-8CE5-481B0F59C0FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Kinderlose (30-39)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Daten_Altersgruppen!$AC$128,Daten_Altersgruppen!$AC$134,Daten_Altersgruppen!$AC$140,Daten_Altersgruppen!$AC$146,Daten_Altersgruppen!$AC$152)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Unpassend</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>eher unpassend</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eher passend</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sehr passend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Daten_Altersgruppen!$AL$132,Daten_Altersgruppen!$AL$138,Daten_Altersgruppen!$AL$144,Daten_Altersgruppen!$AL$150,Daten_Altersgruppen!$AL$156)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FCB6-4E9A-8CE5-481B0F59C0FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="510327256"/>
+        <c:axId val="510327584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="510327256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510327584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="510327584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510327256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBCA5BB9-8537-4267-A9DE-9F59C7D2ACBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41977D7-8587-4F38-9B48-8714AC74B5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11188,7 +13294,7 @@
         <v>435</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K98" si="2">SUM(L67:V67)</f>
+        <f t="shared" ref="K67:K76" si="2">SUM(L67:V67)</f>
         <v>2</v>
       </c>
       <c r="L67">
@@ -12565,71 +14671,71 @@
         <v>17</v>
       </c>
       <c r="AC79">
-        <f>COUNTIF(AC3:AC76,"Absolut unpassend [0]")</f>
+        <f t="shared" ref="AC79:AL79" si="4">COUNTIF(AC3:AC76,"Absolut unpassend [0]")</f>
         <v>4</v>
       </c>
       <c r="AD79">
-        <f>COUNTIF(AD3:AD76,"Absolut unpassend [0]")</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="AE79">
-        <f>COUNTIF(AE3:AE76,"Absolut unpassend [0]")</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AF79">
-        <f>COUNTIF(AF3:AF76,"Absolut unpassend [0]")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AG79">
-        <f>COUNTIF(AG3:AG76,"Absolut unpassend [0]")</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="AH79">
-        <f>COUNTIF(AH3:AH76,"Absolut unpassend [0]")</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="AI79">
-        <f>COUNTIF(AI3:AI76,"Absolut unpassend [0]")</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="AJ79">
-        <f>COUNTIF(AJ3:AJ76,"Absolut unpassend [0]")</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="AK79">
-        <f>COUNTIF(AK3:AK76,"Absolut unpassend [0]")</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="AL79">
-        <f>COUNTIF(AL3:AL76,"Absolut unpassend [0]")</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="AN79">
-        <f>COUNTIF(AN3:AN76,"Unwichtig [0]")</f>
+        <f t="shared" ref="AN79:AT79" si="5">COUNTIF(AN3:AN76,"Unwichtig [0]")</f>
         <v>30</v>
       </c>
       <c r="AO79">
-        <f>COUNTIF(AO3:AO76,"Unwichtig [0]")</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="AP79">
-        <f>COUNTIF(AP3:AP76,"Unwichtig [0]")</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="AQ79">
-        <f>COUNTIF(AQ3:AQ76,"Unwichtig [0]")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AR79">
-        <f>COUNTIF(AR3:AR76,"Unwichtig [0]")</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="AS79">
-        <f>COUNTIF(AS3:AS76,"Unwichtig [0]")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AT79">
-        <f>COUNTIF(AT3:AT76,"Unwichtig [0]")</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -12716,71 +14822,71 @@
         <v>1</v>
       </c>
       <c r="AC82">
-        <f>COUNTIF(AC3:AC76,"Eher unpassend [1]")</f>
+        <f t="shared" ref="AC82:AL82" si="6">COUNTIF(AC3:AC76,"Eher unpassend [1]")</f>
         <v>3</v>
       </c>
       <c r="AD82">
-        <f>COUNTIF(AD3:AD76,"Eher unpassend [1]")</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="AE82">
-        <f>COUNTIF(AE3:AE76,"Eher unpassend [1]")</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AF82">
-        <f>COUNTIF(AF3:AF76,"Eher unpassend [1]")</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AG82">
-        <f>COUNTIF(AG3:AG76,"Eher unpassend [1]")</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="AH82">
-        <f>COUNTIF(AH3:AH76,"Eher unpassend [1]")</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="AI82">
-        <f>COUNTIF(AI3:AI76,"Eher unpassend [1]")</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="AJ82">
-        <f>COUNTIF(AJ3:AJ76,"Eher unpassend [1]")</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="AK82">
-        <f>COUNTIF(AK3:AK76,"Eher unpassend [1]")</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="AL82">
-        <f>COUNTIF(AL3:AL76,"Eher unpassend [1]")</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="AN82">
-        <f>COUNTIF(AN3:AN76,"Eher unwichtig [1]")</f>
+        <f t="shared" ref="AN82:AT82" si="7">COUNTIF(AN3:AN76,"Eher unwichtig [1]")</f>
         <v>21</v>
       </c>
       <c r="AO82">
-        <f>COUNTIF(AO3:AO76,"Eher unwichtig [1]")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="AP82">
-        <f>COUNTIF(AP3:AP76,"Eher unwichtig [1]")</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AQ82">
-        <f>COUNTIF(AQ3:AQ76,"Eher unwichtig [1]")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AR82">
-        <f>COUNTIF(AR3:AR76,"Eher unwichtig [1]")</f>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="AS82">
-        <f>COUNTIF(AS3:AS76,"Eher unwichtig [1]")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AT82">
-        <f>COUNTIF(AT3:AT76,"Eher unwichtig [1]")</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -12867,71 +14973,71 @@
         <v>1</v>
       </c>
       <c r="AC85">
-        <f>COUNTIF(AC3:AC76,"neutral [2]")</f>
+        <f t="shared" ref="AC85:AL85" si="8">COUNTIF(AC3:AC76,"neutral [2]")</f>
         <v>6</v>
       </c>
       <c r="AD85">
-        <f>COUNTIF(AD3:AD76,"neutral [2]")</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="AE85">
-        <f>COUNTIF(AE3:AE76,"neutral [2]")</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="AF85">
-        <f>COUNTIF(AF3:AF76,"neutral [2]")</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AG85">
-        <f>COUNTIF(AG3:AG76,"neutral [2]")</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="AH85">
-        <f>COUNTIF(AH3:AH76,"neutral [2]")</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="AI85">
-        <f>COUNTIF(AI3:AI76,"neutral [2]")</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="AJ85">
-        <f>COUNTIF(AJ3:AJ76,"neutral [2]")</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="AK85">
-        <f>COUNTIF(AK3:AK76,"neutral [2]")</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="AL85">
-        <f>COUNTIF(AL3:AL76,"neutral [2]")</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="AN85">
-        <f>COUNTIF(AN3:AN76,"neutral [2]")</f>
+        <f t="shared" ref="AN85:AT85" si="9">COUNTIF(AN3:AN76,"neutral [2]")</f>
         <v>13</v>
       </c>
       <c r="AO85">
-        <f>COUNTIF(AO3:AO76,"neutral [2]")</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="AP85">
-        <f>COUNTIF(AP3:AP76,"neutral [2]")</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="AQ85">
-        <f>COUNTIF(AQ3:AQ76,"neutral [2]")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AR85">
-        <f>COUNTIF(AR3:AR76,"neutral [2]")</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="AS85">
-        <f>COUNTIF(AS3:AS76,"neutral [2]")</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="AT85">
-        <f>COUNTIF(AT3:AT76,"neutral [2]")</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
     </row>
@@ -13018,71 +15124,71 @@
         <v>2</v>
       </c>
       <c r="AC88">
-        <f>COUNTIF(AC3:AC76,"eher passend [3]")</f>
+        <f t="shared" ref="AC88:AL88" si="10">COUNTIF(AC3:AC76,"eher passend [3]")</f>
         <v>15</v>
       </c>
       <c r="AD88">
-        <f>COUNTIF(AD3:AD76,"eher passend [3]")</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="AE88">
-        <f>COUNTIF(AE3:AE76,"eher passend [3]")</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="AF88">
-        <f>COUNTIF(AF3:AF76,"eher passend [3]")</f>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="AG88">
-        <f>COUNTIF(AG3:AG76,"eher passend [3]")</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="AH88">
-        <f>COUNTIF(AH3:AH76,"eher passend [3]")</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="AI88">
-        <f>COUNTIF(AI3:AI76,"eher passend [3]")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AJ88">
-        <f>COUNTIF(AJ3:AJ76,"eher passend [3]")</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AK88">
-        <f>COUNTIF(AK3:AK76,"eher passend [3]")</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="AL88">
-        <f>COUNTIF(AL3:AL76,"eher passend [3]")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AN88">
-        <f>COUNTIF(AN3:AN76,"Eher wichtig [3]")</f>
+        <f t="shared" ref="AN88:AT88" si="11">COUNTIF(AN3:AN76,"Eher wichtig [3]")</f>
         <v>6</v>
       </c>
       <c r="AO88">
-        <f>COUNTIF(AO3:AO76,"Eher wichtig [3]")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AP88">
-        <f>COUNTIF(AP3:AP76,"Eher wichtig [3]")</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AQ88">
-        <f>COUNTIF(AQ3:AQ76,"Eher wichtig [3]")</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="AR88">
-        <f>COUNTIF(AR3:AR76,"Eher wichtig [3]")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AS88">
-        <f>COUNTIF(AS3:AS76,"Eher wichtig [3]")</f>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="AT88">
-        <f>COUNTIF(AT3:AT76,"Eher wichtig [3]")</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
     </row>
@@ -13169,71 +15275,71 @@
         <v>2</v>
       </c>
       <c r="AC91">
-        <f>COUNTIF(AC3:AC76,"Sehr passend [4]")</f>
+        <f t="shared" ref="AC91:AL91" si="12">COUNTIF(AC3:AC76,"Sehr passend [4]")</f>
         <v>46</v>
       </c>
       <c r="AD91">
-        <f>COUNTIF(AD3:AD76,"Sehr passend [4]")</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="AE91">
-        <f>COUNTIF(AE3:AE76,"Sehr passend [4]")</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="AF91">
-        <f>COUNTIF(AF3:AF76,"Sehr passend [4]")</f>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="AG91">
-        <f>COUNTIF(AG3:AG76,"Sehr passend [4]")</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AH91">
-        <f>COUNTIF(AH3:AH76,"Sehr passend [4]")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AI91">
-        <f>COUNTIF(AI3:AI76,"Sehr passend [4]")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AJ91">
-        <f>COUNTIF(AJ3:AJ76,"Sehr passend [4]")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AK91">
-        <f>COUNTIF(AK3:AK76,"Sehr passend [4]")</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AL91">
-        <f>COUNTIF(AL3:AL76,"Sehr passend [4]")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AN91">
-        <f>COUNTIF(AN3:AN76,"Sehr wichtig [4]")</f>
+        <f t="shared" ref="AN91:AT91" si="13">COUNTIF(AN3:AN76,"Sehr wichtig [4]")</f>
         <v>4</v>
       </c>
       <c r="AO91">
-        <f>COUNTIF(AO3:AO76,"Sehr wichtig [4]")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AP91">
-        <f>COUNTIF(AP3:AP76,"Sehr wichtig [4]")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AQ91">
-        <f>COUNTIF(AQ3:AQ76,"Sehr wichtig [4]")</f>
+        <f t="shared" si="13"/>
         <v>61</v>
       </c>
       <c r="AR91">
-        <f>COUNTIF(AR3:AR76,"Sehr wichtig [4]")</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AS91">
-        <f>COUNTIF(AS3:AS76,"Sehr wichtig [4]")</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="AT91">
-        <f>COUNTIF(AT3:AT76,"Sehr wichtig [4]")</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
     </row>
@@ -13375,10 +15481,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77FF984-2850-4406-BDC0-85E0DB8BA54E}">
   <dimension ref="A1:BT210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T2" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="M2" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G2" sqref="G2"/>
-      <selection pane="bottomLeft" activeCell="AC117" sqref="AC117"/>
+      <selection pane="bottomLeft" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13390,6 +15496,7 @@
     <col min="10" max="10" width="13.6328125" customWidth="1"/>
     <col min="11" max="11" width="15.453125" customWidth="1"/>
     <col min="12" max="12" width="13.6328125" customWidth="1"/>
+    <col min="13" max="21" width="10.90625" customWidth="1"/>
     <col min="22" max="22" width="10.7265625" customWidth="1"/>
     <col min="23" max="23" width="13.6328125" customWidth="1"/>
     <col min="24" max="24" width="16.81640625" customWidth="1"/>
@@ -13803,7 +15910,7 @@
         <v>433</v>
       </c>
       <c r="K3">
-        <f>SUM(L3:V3)</f>
+        <f t="shared" ref="K3:K10" si="0">SUM(L3:V3)</f>
         <v>1</v>
       </c>
       <c r="P3">
@@ -13936,7 +16043,7 @@
         <v>433</v>
       </c>
       <c r="K4">
-        <f>SUM(L4:V4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L4">
@@ -14066,7 +16173,7 @@
         <v>434</v>
       </c>
       <c r="K5">
-        <f>SUM(L5:V5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L5">
@@ -14184,7 +16291,7 @@
         <v>433</v>
       </c>
       <c r="K6">
-        <f>SUM(L6:V6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L6">
@@ -14326,7 +16433,7 @@
         <v>470</v>
       </c>
       <c r="K7">
-        <f>SUM(L7:V7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q7">
@@ -14453,7 +16560,7 @@
         <v>433</v>
       </c>
       <c r="K8">
-        <f>SUM(L8:V8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N8">
@@ -14580,7 +16687,7 @@
         <v>431</v>
       </c>
       <c r="K9">
-        <f>SUM(L9:V9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N9">
@@ -14710,7 +16817,7 @@
         <v>433</v>
       </c>
       <c r="K10">
-        <f>SUM(L10:V10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O10">
@@ -14844,7 +16951,7 @@
         <v>436</v>
       </c>
       <c r="K12">
-        <f>SUM(L12:V12)</f>
+        <f t="shared" ref="K12:K31" si="1">SUM(L12:V12)</f>
         <v>0</v>
       </c>
       <c r="W12">
@@ -14953,7 +17060,7 @@
         <v>435</v>
       </c>
       <c r="K13">
-        <f>SUM(L13:V13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W13">
@@ -15074,7 +17181,7 @@
         <v>433</v>
       </c>
       <c r="K14">
-        <f>SUM(L14:V14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W14">
@@ -15189,7 +17296,7 @@
         <v>435</v>
       </c>
       <c r="K15">
-        <f>SUM(L15:V15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W15">
@@ -15310,7 +17417,7 @@
         <v>433</v>
       </c>
       <c r="K16">
-        <f>SUM(L16:V16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W16">
@@ -15428,7 +17535,7 @@
         <v>435</v>
       </c>
       <c r="K17">
-        <f>SUM(L17:V17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W17">
@@ -15552,7 +17659,7 @@
         <v>434</v>
       </c>
       <c r="K18">
-        <f>SUM(L18:V18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W18">
@@ -15667,7 +17774,7 @@
         <v>433</v>
       </c>
       <c r="K19">
-        <f>SUM(L19:V19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W19">
@@ -15797,7 +17904,7 @@
         <v>436</v>
       </c>
       <c r="K20">
-        <f>SUM(L20:V20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W20">
@@ -15909,7 +18016,7 @@
         <v>433</v>
       </c>
       <c r="K21">
-        <f>SUM(L21:V21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W21">
@@ -16030,7 +18137,7 @@
         <v>433</v>
       </c>
       <c r="K22">
-        <f>SUM(L22:V22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W22">
@@ -16154,7 +18261,7 @@
         <v>433</v>
       </c>
       <c r="K23">
-        <f>SUM(L23:V23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W23">
@@ -16263,7 +18370,7 @@
         <v>435</v>
       </c>
       <c r="K24">
-        <f>SUM(L24:V24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W24">
@@ -16381,7 +18488,7 @@
         <v>433</v>
       </c>
       <c r="K25">
-        <f>SUM(L25:V25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W25">
@@ -16505,7 +18612,7 @@
         <v>433</v>
       </c>
       <c r="K26">
-        <f>SUM(L26:V26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W26">
@@ -16623,7 +18730,7 @@
         <v>433</v>
       </c>
       <c r="K27">
-        <f>SUM(L27:V27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W27">
@@ -16744,7 +18851,7 @@
         <v>434</v>
       </c>
       <c r="K28">
-        <f>SUM(L28:V28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W28">
@@ -16871,7 +18978,7 @@
         <v>433</v>
       </c>
       <c r="K29">
-        <f>SUM(L29:V29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W29">
@@ -16980,7 +19087,7 @@
         <v>433</v>
       </c>
       <c r="K30">
-        <f>SUM(L30:V30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W30">
@@ -17089,7 +19196,7 @@
         <v>433</v>
       </c>
       <c r="K31">
-        <f>SUM(L31:V31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W31">
@@ -17215,7 +19322,7 @@
         <v>431</v>
       </c>
       <c r="K33">
-        <f>SUM(L33:V33)</f>
+        <f t="shared" ref="K33:K53" si="2">SUM(L33:V33)</f>
         <v>1</v>
       </c>
       <c r="V33">
@@ -17345,7 +19452,7 @@
         <v>433</v>
       </c>
       <c r="K34">
-        <f>SUM(L34:V34)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P34">
@@ -17466,7 +19573,7 @@
         <v>435</v>
       </c>
       <c r="K35">
-        <f>SUM(L35:V35)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U35">
@@ -17614,7 +19721,7 @@
         <v>434</v>
       </c>
       <c r="K36">
-        <f>SUM(L36:V36)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R36">
@@ -17729,7 +19836,7 @@
         <v>433</v>
       </c>
       <c r="K37">
-        <f>SUM(L37:V37)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P37">
@@ -17862,7 +19969,7 @@
         <v>434</v>
       </c>
       <c r="K38">
-        <f>SUM(L38:V38)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L38">
@@ -17992,7 +20099,7 @@
         <v>433</v>
       </c>
       <c r="K39">
-        <f>SUM(L39:V39)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L39">
@@ -18125,7 +20232,7 @@
         <v>470</v>
       </c>
       <c r="K40">
-        <f>SUM(L40:V40)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q40">
@@ -18261,7 +20368,7 @@
         <v>435</v>
       </c>
       <c r="K41">
-        <f>SUM(L41:V41)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M41">
@@ -18397,7 +20504,7 @@
         <v>468</v>
       </c>
       <c r="K42">
-        <f>SUM(L42:V42)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O42">
@@ -18524,7 +20631,7 @@
         <v>437</v>
       </c>
       <c r="K43">
-        <f>SUM(L43:V43)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="T43">
@@ -18660,7 +20767,7 @@
         <v>437</v>
       </c>
       <c r="K44">
-        <f>SUM(L44:V44)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="S44">
@@ -18796,7 +20903,7 @@
         <v>470</v>
       </c>
       <c r="K45">
-        <f>SUM(L45:V45)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q45">
@@ -18923,7 +21030,7 @@
         <v>436</v>
       </c>
       <c r="K46">
-        <f>SUM(L46:V46)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V46">
@@ -19059,7 +21166,7 @@
         <v>433</v>
       </c>
       <c r="K47">
-        <f>SUM(L47:V47)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M47">
@@ -19192,7 +21299,7 @@
         <v>431</v>
       </c>
       <c r="K48">
-        <f>SUM(L48:V48)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L48">
@@ -19328,7 +21435,7 @@
         <v>437</v>
       </c>
       <c r="K49">
-        <f>SUM(L49:V49)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P49">
@@ -19449,7 +21556,7 @@
         <v>435</v>
       </c>
       <c r="K50">
-        <f>SUM(L50:V50)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L50">
@@ -19582,7 +21689,7 @@
         <v>433</v>
       </c>
       <c r="K51">
-        <f>SUM(L51:V51)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M51">
@@ -19703,7 +21810,7 @@
         <v>435</v>
       </c>
       <c r="K52">
-        <f>SUM(L52:V52)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q52">
@@ -19842,7 +21949,7 @@
         <v>435</v>
       </c>
       <c r="K53">
-        <f>SUM(L53:V53)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q53">
@@ -19971,7 +22078,7 @@
         <v>434</v>
       </c>
       <c r="K55">
-        <f>SUM(L55:V55)</f>
+        <f t="shared" ref="K55:K60" si="3">SUM(L55:V55)</f>
         <v>0</v>
       </c>
       <c r="W55">
@@ -20098,7 +22205,7 @@
         <v>435</v>
       </c>
       <c r="K56">
-        <f>SUM(L56:V56)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W56">
@@ -20213,7 +22320,7 @@
         <v>433</v>
       </c>
       <c r="K57">
-        <f>SUM(L57:V57)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W57">
@@ -20331,7 +22438,7 @@
         <v>433</v>
       </c>
       <c r="K58">
-        <f>SUM(L58:V58)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W58">
@@ -20443,7 +22550,7 @@
         <v>436</v>
       </c>
       <c r="K59">
-        <f>SUM(L59:V59)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W59">
@@ -20564,7 +22671,7 @@
         <v>436</v>
       </c>
       <c r="K60">
-        <f>SUM(L60:V60)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W60">
@@ -20696,7 +22803,7 @@
         <v>431</v>
       </c>
       <c r="K62">
-        <f>SUM(L62:V62)</f>
+        <f t="shared" ref="K62:K71" si="4">SUM(L62:V62)</f>
         <v>1</v>
       </c>
       <c r="V62">
@@ -20817,7 +22924,7 @@
         <v>470</v>
       </c>
       <c r="K63">
-        <f>SUM(L63:V63)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V63">
@@ -20953,7 +23060,7 @@
         <v>433</v>
       </c>
       <c r="K64">
-        <f>SUM(L64:V64)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U64">
@@ -21083,7 +23190,7 @@
         <v>434</v>
       </c>
       <c r="K65">
-        <f>SUM(L65:V65)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P65">
@@ -21216,7 +23323,7 @@
         <v>437</v>
       </c>
       <c r="K66">
-        <f>SUM(L66:V66)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Q66">
@@ -21343,7 +23450,7 @@
         <v>433</v>
       </c>
       <c r="K67">
-        <f>SUM(L67:V67)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U67">
@@ -21464,7 +23571,7 @@
         <v>437</v>
       </c>
       <c r="K68">
-        <f>SUM(L68:V68)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V68">
@@ -21579,7 +23686,7 @@
         <v>433</v>
       </c>
       <c r="K69">
-        <f>SUM(L69:V69)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L69">
@@ -21715,7 +23822,7 @@
         <v>470</v>
       </c>
       <c r="K70">
-        <f>SUM(L70:V70)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="R70">
@@ -21851,7 +23958,7 @@
         <v>434</v>
       </c>
       <c r="K71">
-        <f>SUM(L71:V71)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="T71">
@@ -22232,7 +24339,7 @@
         <v>433</v>
       </c>
       <c r="K76">
-        <f>SUM(L76:V76)</f>
+        <f t="shared" ref="K76:K82" si="5">SUM(L76:V76)</f>
         <v>1</v>
       </c>
       <c r="V76">
@@ -22359,7 +24466,7 @@
         <v>434</v>
       </c>
       <c r="K77">
-        <f>SUM(L77:V77)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V77">
@@ -22480,7 +24587,7 @@
         <v>434</v>
       </c>
       <c r="K78">
-        <f>SUM(L78:V78)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V78">
@@ -22610,7 +24717,7 @@
         <v>467</v>
       </c>
       <c r="K79">
-        <f>SUM(L79:V79)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V79">
@@ -22731,7 +24838,7 @@
         <v>433</v>
       </c>
       <c r="K80">
-        <f>SUM(L80:V80)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="R80">
@@ -22864,7 +24971,7 @@
         <v>470</v>
       </c>
       <c r="K81">
-        <f>SUM(L81:V81)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V81">
@@ -22988,7 +25095,7 @@
         <v>433</v>
       </c>
       <c r="K82">
-        <f>SUM(L82:V82)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V82">
@@ -23254,35 +25361,35 @@
         <v>1</v>
       </c>
       <c r="AE91">
-        <f t="shared" ref="AE91:AL91" si="0">COUNTIF(AE3:AE10,"Absolut unpassend [0]")</f>
+        <f t="shared" ref="AE91:AL91" si="6">COUNTIF(AE3:AE10,"Absolut unpassend [0]")</f>
         <v>1</v>
       </c>
       <c r="AF91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AH91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AI91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AJ91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AK91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AL91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -23305,10 +25412,48 @@
       <c r="AA92" t="s">
         <v>479</v>
       </c>
-      <c r="AB92" s="10"/>
-      <c r="AC92">
+      <c r="AB92" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC92" s="6">
         <f>AC91/W90</f>
         <v>0</v>
+      </c>
+      <c r="AD92" s="6">
+        <f>AD91/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AE92" s="6">
+        <f>AE91/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AF92" s="6">
+        <f>AF91/W90</f>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="6">
+        <f>AG91/W90</f>
+        <v>0.5</v>
+      </c>
+      <c r="AH92" s="6">
+        <f>AH91/W90</f>
+        <v>0.375</v>
+      </c>
+      <c r="AI92" s="6">
+        <f>AI91/W90</f>
+        <v>0.625</v>
+      </c>
+      <c r="AJ92" s="6">
+        <f>AJ91/W90</f>
+        <v>0.75</v>
+      </c>
+      <c r="AK92" s="6">
+        <f>AK91/W90</f>
+        <v>0.375</v>
+      </c>
+      <c r="AL92" s="6">
+        <f>AL91/W90</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="93" spans="1:72" x14ac:dyDescent="0.35">
@@ -23345,6 +25490,42 @@
       <c r="AC93">
         <f>COUNTIF(AC12:AC31,"Absolut unpassend [0]")</f>
         <v>2</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" ref="AD93:AL93" si="7">COUNTIF(AD12:AD31,"Absolut unpassend [0]")</f>
+        <v>3</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AH93">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AI93">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="AJ93">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AK93">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AL93">
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:72" x14ac:dyDescent="0.35">
@@ -23376,7 +25557,49 @@
         <f>AA93/W90</f>
         <v>0.125</v>
       </c>
-      <c r="AB94" s="10"/>
+      <c r="AB94" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC94" s="6">
+        <f>AC93/W94</f>
+        <v>0.1</v>
+      </c>
+      <c r="AD94" s="6">
+        <f>AD93/W94</f>
+        <v>0.15</v>
+      </c>
+      <c r="AE94" s="6">
+        <f>AE93/W94</f>
+        <v>0.1</v>
+      </c>
+      <c r="AF94" s="6">
+        <f>AF93/W94</f>
+        <v>0.05</v>
+      </c>
+      <c r="AG94" s="6">
+        <f>AG93/W94</f>
+        <v>0.35</v>
+      </c>
+      <c r="AH94" s="6">
+        <f>AH93/W94</f>
+        <v>0.25</v>
+      </c>
+      <c r="AI94" s="6">
+        <f>AI93/W94</f>
+        <v>0.45</v>
+      </c>
+      <c r="AJ94" s="6">
+        <f>AJ93/W94</f>
+        <v>0.2</v>
+      </c>
+      <c r="AK94" s="6">
+        <f>AK93/W94</f>
+        <v>0.2</v>
+      </c>
+      <c r="AL94" s="6">
+        <f>AL93/W94</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="95" spans="1:72" x14ac:dyDescent="0.35">
       <c r="U95" t="s">
@@ -23489,39 +25712,39 @@
         <v>0</v>
       </c>
       <c r="AD97">
-        <f t="shared" ref="AD97:AL97" si="1">COUNTIF(AD3:AD10,"Eher unpassend [1]")</f>
+        <f t="shared" ref="AD97:AL97" si="8">COUNTIF(AD3:AD10,"Eher unpassend [1]")</f>
         <v>2</v>
       </c>
       <c r="AE97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AF97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AG97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AH97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AI97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AJ97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AK97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -23544,7 +25767,49 @@
       <c r="AA98" t="s">
         <v>477</v>
       </c>
-      <c r="AB98" s="10"/>
+      <c r="AB98" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC98" s="6">
+        <f>AC97/W90</f>
+        <v>0</v>
+      </c>
+      <c r="AD98" s="6">
+        <f>AD97/W90</f>
+        <v>0.25</v>
+      </c>
+      <c r="AE98" s="6">
+        <f>AE97/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AF98" s="6">
+        <f>AF97/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AG98" s="6">
+        <f>AG97/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AH98" s="6">
+        <f>AH97/W90</f>
+        <v>0.25</v>
+      </c>
+      <c r="AI98" s="6">
+        <f>AI97/W90</f>
+        <v>0.25</v>
+      </c>
+      <c r="AJ98" s="6">
+        <f>AJ97/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AK98" s="6">
+        <f>AK97/W90</f>
+        <v>0</v>
+      </c>
+      <c r="AL98" s="6">
+        <f>AL97/W90</f>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="99" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U99">
@@ -23578,6 +25843,42 @@
         <f>COUNTIF(AC12:AC31,"Eher unpassend [1]")</f>
         <v>1</v>
       </c>
+      <c r="AD99">
+        <f t="shared" ref="AD99:AL99" si="9">COUNTIF(AD12:AD31,"Eher unpassend [1]")</f>
+        <v>4</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AH99">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AI99">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AJ99">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AK99">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AL99">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="100" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U100" s="6">
@@ -23604,7 +25905,49 @@
         <f>AA99/W90</f>
         <v>0</v>
       </c>
-      <c r="AB100" s="10"/>
+      <c r="AB100" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC100" s="6">
+        <f>AC99/W94</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD100" s="6">
+        <f>AD99/W94</f>
+        <v>0.2</v>
+      </c>
+      <c r="AE100" s="6">
+        <f>AE99/W94</f>
+        <v>0.1</v>
+      </c>
+      <c r="AF100" s="6">
+        <f>AF99/W94</f>
+        <v>0.05</v>
+      </c>
+      <c r="AG100" s="6">
+        <f>AG99/W94</f>
+        <v>0.25</v>
+      </c>
+      <c r="AH100" s="6">
+        <f>AH99/W94</f>
+        <v>0.15</v>
+      </c>
+      <c r="AI100" s="6">
+        <f>AI99/W94</f>
+        <v>0.4</v>
+      </c>
+      <c r="AJ100" s="6">
+        <f>AJ99/W94</f>
+        <v>0.35</v>
+      </c>
+      <c r="AK100" s="6">
+        <f>AK99/W94</f>
+        <v>0.25</v>
+      </c>
+      <c r="AL100" s="6">
+        <f>AL99/W94</f>
+        <v>0.3</v>
+      </c>
     </row>
     <row r="101" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U101" t="s">
@@ -23717,39 +26060,39 @@
         <v>1</v>
       </c>
       <c r="AD103">
-        <f t="shared" ref="AD103:AL103" si="2">COUNTIF(AD3:AD10,"neutral [2]")</f>
+        <f t="shared" ref="AD103:AL103" si="10">COUNTIF(AD3:AD10,"neutral [2]")</f>
         <v>0</v>
       </c>
       <c r="AE103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AF103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AG103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AH103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AI103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AJ103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AL103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -23772,7 +26115,49 @@
       <c r="AA104" t="s">
         <v>481</v>
       </c>
-      <c r="AB104" s="10"/>
+      <c r="AB104" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC104" s="6">
+        <f>AC103/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AD104" s="6">
+        <f>AD103/W90</f>
+        <v>0</v>
+      </c>
+      <c r="AE104" s="6">
+        <f>AE103/W90</f>
+        <v>0.25</v>
+      </c>
+      <c r="AF104" s="6">
+        <f>AF103/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AG104" s="6">
+        <f>AG103/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AH104" s="6">
+        <f>AH103/W90</f>
+        <v>0.25</v>
+      </c>
+      <c r="AI104" s="6">
+        <f>AI103/W90</f>
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="6">
+        <f>AJ103/W90</f>
+        <v>0</v>
+      </c>
+      <c r="AK104" s="6">
+        <f>AK103/W90</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL104" s="6">
+        <f>AL103/W90</f>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="105" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U105">
@@ -23806,6 +26191,42 @@
         <f>COUNTIF(AC12:AC31,"neutral [2]")</f>
         <v>0</v>
       </c>
+      <c r="AD105">
+        <f t="shared" ref="AD105:AL105" si="11">COUNTIF(AD12:AD31,"neutral [2]")</f>
+        <v>6</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AH105">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AI105">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AJ105">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AK105">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AL105">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="106" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U106" s="6">
@@ -23832,7 +26253,49 @@
         <f>AA105/W90</f>
         <v>0.125</v>
       </c>
-      <c r="AB106" s="10"/>
+      <c r="AB106" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC106" s="6">
+        <f>AC105/W94</f>
+        <v>0</v>
+      </c>
+      <c r="AD106" s="6">
+        <f>AD105/W94</f>
+        <v>0.3</v>
+      </c>
+      <c r="AE106" s="6">
+        <f>AE105/W94</f>
+        <v>0.1</v>
+      </c>
+      <c r="AF106" s="6">
+        <f>AF105/W94</f>
+        <v>0.05</v>
+      </c>
+      <c r="AG106" s="6">
+        <f>AG105/W94</f>
+        <v>0.3</v>
+      </c>
+      <c r="AH106" s="6">
+        <f>AH105/W94</f>
+        <v>0.4</v>
+      </c>
+      <c r="AI106" s="6">
+        <f>AI105/W94</f>
+        <v>0.05</v>
+      </c>
+      <c r="AJ106" s="6">
+        <f>AJ105/W94</f>
+        <v>0.25</v>
+      </c>
+      <c r="AK106" s="6">
+        <f>AK105/W94</f>
+        <v>0.3</v>
+      </c>
+      <c r="AL106" s="6">
+        <f>AL105/W94</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="107" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U107" t="s">
@@ -23945,39 +26408,39 @@
         <v>1</v>
       </c>
       <c r="AD109">
-        <f t="shared" ref="AD109:AL109" si="3">COUNTIF(AD3:AD10,"eher passend [3]")</f>
+        <f t="shared" ref="AD109:AL109" si="12">COUNTIF(AD3:AD10,"eher passend [3]")</f>
         <v>3</v>
       </c>
       <c r="AE109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AF109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AG109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AH109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AL109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -24000,7 +26463,49 @@
       <c r="AA110" t="s">
         <v>483</v>
       </c>
-      <c r="AB110" s="10"/>
+      <c r="AB110" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC110" s="6">
+        <f>AC109/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AD110" s="6">
+        <f>AD109/W90</f>
+        <v>0.375</v>
+      </c>
+      <c r="AE110" s="6">
+        <f>AE109/W90</f>
+        <v>0.375</v>
+      </c>
+      <c r="AF110" s="6">
+        <f>AF109/W90</f>
+        <v>0.375</v>
+      </c>
+      <c r="AG110" s="6">
+        <f>AG109/W90</f>
+        <v>0.25</v>
+      </c>
+      <c r="AH110" s="6">
+        <f>AH109/W90</f>
+        <v>0</v>
+      </c>
+      <c r="AI110" s="6">
+        <f>AI109/W90</f>
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="6">
+        <f>AJ109/W90</f>
+        <v>0</v>
+      </c>
+      <c r="AK110" s="6">
+        <f>AK109/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AL110" s="6">
+        <f>AL109/W90</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U111">
@@ -24034,6 +26539,42 @@
         <f>COUNTIF(AC12:AC31,"eher passend [3]")</f>
         <v>6</v>
       </c>
+      <c r="AD111">
+        <f t="shared" ref="AD111:AL111" si="13">COUNTIF(AD12:AD31,"eher passend [3]")</f>
+        <v>5</v>
+      </c>
+      <c r="AE111">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="AF111">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="AG111">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AH111">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AI111">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AJ111">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AK111">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AL111">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U112" s="6">
@@ -24060,7 +26601,49 @@
         <f>AA111/W90</f>
         <v>0</v>
       </c>
-      <c r="AB112" s="10"/>
+      <c r="AB112" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC112" s="6">
+        <f>AC111/W94</f>
+        <v>0.3</v>
+      </c>
+      <c r="AD112" s="6">
+        <f>AD111/W94</f>
+        <v>0.25</v>
+      </c>
+      <c r="AE112" s="6">
+        <f>AE111/W94</f>
+        <v>0.4</v>
+      </c>
+      <c r="AF112" s="6">
+        <f>AF111/W94</f>
+        <v>0.3</v>
+      </c>
+      <c r="AG112" s="6">
+        <f>AG111/W94</f>
+        <v>0.1</v>
+      </c>
+      <c r="AH112" s="6">
+        <f>AH111/W94</f>
+        <v>0.15</v>
+      </c>
+      <c r="AI112" s="6">
+        <f>AI111/W94</f>
+        <v>0.05</v>
+      </c>
+      <c r="AJ112" s="6">
+        <f>AJ111/W94</f>
+        <v>0.15</v>
+      </c>
+      <c r="AK112" s="6">
+        <f>AK111/W94</f>
+        <v>0.2</v>
+      </c>
+      <c r="AL112" s="6">
+        <f>AL111/W94</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U113" t="s">
@@ -24173,39 +26756,39 @@
         <v>6</v>
       </c>
       <c r="AD115">
-        <f t="shared" ref="AD115:AL115" si="4">COUNTIF(AD3:AD10,"Sehr passend [4]")</f>
+        <f t="shared" ref="AD115:AL115" si="14">COUNTIF(AD3:AD10,"Sehr passend [4]")</f>
         <v>2</v>
       </c>
       <c r="AE115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AF115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AG115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AI115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AJ115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -24234,7 +26817,49 @@
         <f>SUM(AA114,AA111,AA108,AA105,AA102,AA90,AA93,AA96,AA99)</f>
         <v>8</v>
       </c>
-      <c r="AB116" s="10"/>
+      <c r="AB116" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC116" s="6">
+        <f>AC115/W90</f>
+        <v>0.75</v>
+      </c>
+      <c r="AD116" s="6">
+        <f>AD115/W90</f>
+        <v>0.25</v>
+      </c>
+      <c r="AE116" s="6">
+        <f>AE115/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AF116" s="6">
+        <f>AF115/W90</f>
+        <v>0.375</v>
+      </c>
+      <c r="AG116" s="6">
+        <f>AG115/W90</f>
+        <v>0</v>
+      </c>
+      <c r="AH116" s="6">
+        <f>AH115/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AI116" s="6">
+        <f>AI115/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AJ116" s="6">
+        <f>AJ115/W90</f>
+        <v>0.125</v>
+      </c>
+      <c r="AK116" s="6">
+        <f>AK115/W90</f>
+        <v>0</v>
+      </c>
+      <c r="AL116" s="6">
+        <f>AL115/W90</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U117" s="6">
@@ -24268,9 +26893,87 @@
         <f>COUNTIF(AC12:AC31,"Sehr passend [4]")</f>
         <v>11</v>
       </c>
+      <c r="AD117">
+        <f>COUNTIF(AD12:AD31,"Sehr passend [4]")</f>
+        <v>2</v>
+      </c>
+      <c r="AE117">
+        <f>COUNTIF(AE12:AE31,"Sehr passend [4]")</f>
+        <v>6</v>
+      </c>
+      <c r="AF117">
+        <f>COUNTIF(AF12:AF31,"Sehr passend [4]")</f>
+        <v>11</v>
+      </c>
+      <c r="AG117">
+        <f>COUNTIF(AG12:AG31,"Sehr passend [4]")</f>
+        <v>0</v>
+      </c>
+      <c r="AH117">
+        <f>COUNTIF(AH12:AH31,"Sehr passend [4]")</f>
+        <v>1</v>
+      </c>
+      <c r="AI117">
+        <f>COUNTIF(AI12:AI31,"Sehr passend [4]")</f>
+        <v>1</v>
+      </c>
+      <c r="AJ117">
+        <f>COUNTIF(AJ12:AJ31,"Sehr passend [4]")</f>
+        <v>1</v>
+      </c>
+      <c r="AK117">
+        <f>COUNTIF(AK12:AK31,"Sehr passend [4]")</f>
+        <v>1</v>
+      </c>
+      <c r="AL117">
+        <f>COUNTIF(AL12:AL31,"Sehr passend [4]")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="21:38" x14ac:dyDescent="0.35">
-      <c r="AB118" s="10"/>
+      <c r="AB118" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC118" s="6">
+        <f>AC117/W94</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD118" s="6">
+        <f>AD117/W94</f>
+        <v>0.1</v>
+      </c>
+      <c r="AE118" s="6">
+        <f>AE117/W94</f>
+        <v>0.3</v>
+      </c>
+      <c r="AF118" s="6">
+        <f>AF117/W94</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG118" s="6">
+        <f>AG117/W94</f>
+        <v>0</v>
+      </c>
+      <c r="AH118" s="6">
+        <f>AH117/W94</f>
+        <v>0.05</v>
+      </c>
+      <c r="AI118" s="6">
+        <f>AI117/W94</f>
+        <v>0.05</v>
+      </c>
+      <c r="AJ118" s="6">
+        <f>AJ117/W94</f>
+        <v>0.05</v>
+      </c>
+      <c r="AK118" s="6">
+        <f>AK117/W94</f>
+        <v>0.05</v>
+      </c>
+      <c r="AL118" s="6">
+        <f>AL117/W94</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="21:38" x14ac:dyDescent="0.35">
       <c r="W119" t="s">
@@ -24365,53 +27068,53 @@
         <v>515</v>
       </c>
       <c r="AC121">
-        <f>(AC91*1+AC97*2+AC103*3+AC109*4+AC115*5)/74</f>
-        <v>0.5</v>
+        <f>(AC91*1+AC97*2+AC103*3+AC109*4+AC115*5)/W90</f>
+        <v>4.625</v>
       </c>
       <c r="AD121">
-        <f>(AD91*1+AD97*2+AD103*3+AD109*4+AD115*5)/74</f>
-        <v>0.36486486486486486</v>
+        <f>(AD91*1+AD97*2+AD103*3+AD109*4+AD115*5)/W90</f>
+        <v>3.375</v>
       </c>
       <c r="AE121">
-        <f>(AE91*1+AE97*2+AE103*3+AE109*4+AE115*5)/74</f>
-        <v>0.35135135135135137</v>
+        <f>(AE91*1+AE97*2+AE103*3+AE109*4+AE115*5)/W90</f>
+        <v>3.25</v>
       </c>
       <c r="AF121">
-        <f>(AF91*1+AF97*2+AF103*3+AF109*4+AF115*5)/74</f>
-        <v>0.43243243243243246</v>
+        <f>(AF91*1+AF97*2+AF103*3+AF109*4+AF115*5)/W90</f>
+        <v>4</v>
       </c>
       <c r="AG121">
-        <f>(AG91*1+AG97*2+AG103*3+AG109*4+AG115*5)/74</f>
-        <v>0.22972972972972974</v>
+        <f>(AG91*1+AG97*2+AG103*3+AG109*4+AG115*5)/W90</f>
+        <v>2.125</v>
       </c>
       <c r="AH121">
-        <f>(AH91*1+AH97*2+AH103*3+AH109*4+AH115*5)/74</f>
-        <v>0.24324324324324326</v>
+        <f>(AH91*1+AH97*2+AH103*3+AH109*4+AH115*5)/W90</f>
+        <v>2.25</v>
       </c>
       <c r="AI121">
-        <f>(AI91*1+AI97*2+AI103*3+AI109*4+AI115*5)/74</f>
-        <v>0.1891891891891892</v>
+        <f>(AI91*1+AI97*2+AI103*3+AI109*4+AI115*5)/W90</f>
+        <v>1.75</v>
       </c>
       <c r="AJ121">
-        <f>(AJ91*1+AJ97*2+AJ103*3+AJ109*4+AJ115*5)/74</f>
-        <v>0.17567567567567569</v>
+        <f>(AJ91*1+AJ97*2+AJ103*3+AJ109*4+AJ115*5)/W90</f>
+        <v>1.625</v>
       </c>
       <c r="AK121">
-        <f>(AK91*1+AK97*2+AK103*3+AK109*4+AK115*5)/74</f>
-        <v>0.25675675675675674</v>
+        <f>(AK91*1+AK97*2+AK103*3+AK109*4+AK115*5)/W90</f>
+        <v>2.375</v>
       </c>
       <c r="AL121">
-        <f>(AL91*1+AL97*2+AL103*3+AL109*4+AL115*5)/74</f>
-        <v>0.14864864864864866</v>
+        <f>(AL91*1+AL97*2+AL103*3+AL109*4+AL115*5)/W90</f>
+        <v>1.375</v>
       </c>
     </row>
     <row r="122" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U122" s="6">
-        <f>U121/W126</f>
+        <f>U121/W125</f>
         <v>0</v>
       </c>
       <c r="V122" s="6">
-        <f>V121/W126</f>
+        <f>V121/W125</f>
         <v>0</v>
       </c>
       <c r="X122" s="6">
@@ -24430,9 +27133,6 @@
         <f>AA121/W121</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="AB122" s="10" t="s">
-        <v>516</v>
-      </c>
     </row>
     <row r="123" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U123" t="s">
@@ -24453,12 +27153,48 @@
       <c r="AA123" t="s">
         <v>479</v>
       </c>
-      <c r="AB123" t="s">
-        <v>529</v>
+      <c r="AB123" s="10" t="s">
+        <v>516</v>
       </c>
       <c r="AC123">
-        <f>SUM(AC91,AC97,AC103,AC109,AC115)</f>
-        <v>8</v>
+        <f>(AC93*1+AC99*2+AC105*3+AC111*4+AC117*5)/W94</f>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="AD123">
+        <f>(AD93*1+AD99*2+AD105*3+AD111*4+AD117*5)/W94</f>
+        <v>2.95</v>
+      </c>
+      <c r="AE123">
+        <f>(AE93*1+AE99*2+AE105*3+AE111*4+AE117*5)/W94</f>
+        <v>3.7</v>
+      </c>
+      <c r="AF123">
+        <f>(AF93*1+AF99*2+AF105*3+AF111*4+AF117*5)/W94</f>
+        <v>4.25</v>
+      </c>
+      <c r="AG123">
+        <f>(AG93*1+AG99*2+AG105*3+AG111*4+AG117*5)/W94</f>
+        <v>2.15</v>
+      </c>
+      <c r="AH123">
+        <f>(AH93*1+AH99*2+AH105*3+AH111*4+AH117*5)/W94</f>
+        <v>2.6</v>
+      </c>
+      <c r="AI123">
+        <f>(AI93*1+AI99*2+AI105*3+AI111*4+AI117*5)/W94</f>
+        <v>1.85</v>
+      </c>
+      <c r="AJ123">
+        <f>(AJ93*1+AJ99*2+AJ105*3+AJ111*4+AJ117*5)/W94</f>
+        <v>2.5</v>
+      </c>
+      <c r="AK123">
+        <f>(AK93*1+AK99*2+AK105*3+AK111*4+AK117*5)/W94</f>
+        <v>2.65</v>
+      </c>
+      <c r="AL123">
+        <f>(AL93*1+AL99*2+AL105*3+AL111*4+AL117*5)/W94</f>
+        <v>1.7</v>
       </c>
     </row>
     <row r="124" spans="21:38" x14ac:dyDescent="0.35">
@@ -24470,6 +27206,9 @@
         <f>COUNTIF(X55:X60,"drei Jahre")</f>
         <v>0</v>
       </c>
+      <c r="W124" t="s">
+        <v>516</v>
+      </c>
       <c r="X124">
         <f>COUNTIF(X33:X53,"drei Jahre")</f>
         <v>5</v>
@@ -24486,25 +27225,62 @@
         <f>COUNTIF(AA33:AA53,"drei Jahre")</f>
         <v>0</v>
       </c>
-      <c r="AB124" s="10" t="s">
-        <v>530</v>
+      <c r="AB124" t="s">
+        <v>529</v>
       </c>
       <c r="AC124">
-        <f>SUM(AC93,AC99,AC105,AC111,AC117)</f>
-        <v>20</v>
+        <f>SUM(AC91,AC97,AC103,AC109,AC115)</f>
+        <v>8</v>
+      </c>
+      <c r="AD124">
+        <f>SUM(AD91,AD97,AD103,AD109,AD115)</f>
+        <v>8</v>
+      </c>
+      <c r="AE124">
+        <f>SUM(AE91,AE97,AE103,AE109,AE115)</f>
+        <v>8</v>
+      </c>
+      <c r="AF124">
+        <f>SUM(AF91,AF97,AF103,AF109,AF115)</f>
+        <v>8</v>
+      </c>
+      <c r="AG124">
+        <f>SUM(AG91,AG97,AG103,AG109,AG115)</f>
+        <v>8</v>
+      </c>
+      <c r="AH124">
+        <f>SUM(AH91,AH97,AH103,AH109,AH115)</f>
+        <v>8</v>
+      </c>
+      <c r="AI124">
+        <f>SUM(AI91,AI97,AI103,AI109,AI115)</f>
+        <v>8</v>
+      </c>
+      <c r="AJ124">
+        <f>SUM(AJ91,AJ97,AJ103,AJ109,AJ115)</f>
+        <v>8</v>
+      </c>
+      <c r="AK124">
+        <f>SUM(AK91,AK97,AK103,AK109,AK115)</f>
+        <v>8</v>
+      </c>
+      <c r="AL124">
+        <f>SUM(AL91,AL97,AL103,AL109,AL115)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U125" s="6">
-        <f>U124/W126</f>
+        <f>U124/W125</f>
         <v>0</v>
       </c>
       <c r="V125" s="6">
-        <f>V124/W126</f>
+        <f>V124/W125</f>
         <v>0</v>
       </c>
-      <c r="W125" t="s">
-        <v>516</v>
+      <c r="W125" s="8">
+        <f>COUNTA(X55:X60)</f>
+        <v>6</v>
       </c>
       <c r="X125" s="6">
         <f>X124/W121</f>
@@ -24522,6 +27298,49 @@
         <f>AA124/W121</f>
         <v>0</v>
       </c>
+      <c r="AB125" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="AC125">
+        <f>SUM(AC93,AC99,AC105,AC111,AC117)</f>
+        <v>20</v>
+      </c>
+      <c r="AD125">
+        <f>SUM(AD93,AD99,AD105,AD111,AD117)</f>
+        <v>20</v>
+      </c>
+      <c r="AE125">
+        <f>SUM(AE93,AE99,AE105,AE111,AE117)</f>
+        <v>20</v>
+      </c>
+      <c r="AF125">
+        <f>SUM(AF93,AF99,AF105,AF111,AF117)</f>
+        <v>20</v>
+      </c>
+      <c r="AG125">
+        <f>SUM(AG93,AG99,AG105,AG111,AG117)</f>
+        <v>20</v>
+      </c>
+      <c r="AH125">
+        <f>SUM(AH93,AH99,AH105,AH111,AH117)</f>
+        <v>20</v>
+      </c>
+      <c r="AI125">
+        <f>SUM(AI93,AI99,AI105,AI111,AI117)</f>
+        <v>20</v>
+      </c>
+      <c r="AJ125">
+        <f>SUM(AJ93,AJ99,AJ105,AJ111,AJ117)</f>
+        <v>20</v>
+      </c>
+      <c r="AK125">
+        <f>SUM(AK93,AK99,AK105,AK111,AK117)</f>
+        <v>20</v>
+      </c>
+      <c r="AL125">
+        <f>SUM(AL93,AL99,AL105,AL111,AL117)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="126" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U126" t="s">
@@ -24530,10 +27349,6 @@
       <c r="V126" t="s">
         <v>478</v>
       </c>
-      <c r="W126" s="8">
-        <f>COUNTA(X55:X60)</f>
-        <v>6</v>
-      </c>
       <c r="X126" t="s">
         <v>478</v>
       </c>
@@ -24575,11 +27390,11 @@
     </row>
     <row r="128" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U128" s="6">
-        <f>U127/W126</f>
+        <f>U127/W125</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="V128" s="6">
-        <f>V127/W126</f>
+        <f>V127/W125</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="X128" s="6">
@@ -24598,8 +27413,38 @@
         <f>AA127/W121</f>
         <v>4.7619047619047616E-2</v>
       </c>
-    </row>
-    <row r="129" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AC128" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="AD128" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE128" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="AF128" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="AG128" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH128" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="AI128" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ128" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="AK128" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="AL128" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="129" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U129" t="s">
         <v>477</v>
       </c>
@@ -24618,8 +27463,51 @@
       <c r="AA129" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="130" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB129" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC129">
+        <f>COUNTIF(AC33:AC53,"Absolut unpassend [0]")</f>
+        <v>2</v>
+      </c>
+      <c r="AD129">
+        <f t="shared" ref="AD129:AL129" si="15">COUNTIF(AD33:AD53,"Absolut unpassend [0]")</f>
+        <v>6</v>
+      </c>
+      <c r="AE129">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AF129">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AG129">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AH129">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AI129">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="AJ129">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="AK129">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AL129">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U130">
         <f>COUNTIF(X55:X60,"fünf Jahre")</f>
         <v>2</v>
@@ -24644,14 +27532,57 @@
         <f>COUNTIF(AA33:AA53,"fünf Jahre")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB130" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC130" s="6">
+        <f>AC129/W121</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AD130" s="6">
+        <f>AD129/W121</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AE130" s="6">
+        <f>AE129/W121</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AF130" s="6">
+        <f>AF129/W121</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AG130" s="6">
+        <f>AG129/W121</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="AH130" s="6">
+        <f>AH129/W121</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AI130" s="6">
+        <f>AI129/W121</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AJ130" s="6">
+        <f>AJ129/W121</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AK130" s="6">
+        <f>AK129/W121</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="AL130" s="6">
+        <f>AL129/W121</f>
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="131" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U131" s="6">
-        <f>U130/W126</f>
+        <f>U130/W125</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="V131" s="6">
-        <f>V130/W126</f>
+        <f>V130/W125</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="X131" s="6">
@@ -24670,8 +27601,51 @@
         <f>AA130/W121</f>
         <v>9.5238095238095233E-2</v>
       </c>
-    </row>
-    <row r="132" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB131" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC131">
+        <f>COUNTIF(AC55:AC60,"Absolut unpassend [0]")</f>
+        <v>0</v>
+      </c>
+      <c r="AD131">
+        <f t="shared" ref="AD131:AL131" si="16">COUNTIF(AD55:AD60,"Absolut unpassend [0]")</f>
+        <v>0</v>
+      </c>
+      <c r="AE131">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AF131">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AG131">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AH131">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AI131">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AJ131">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AK131">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AL131">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U132" t="s">
         <v>480</v>
       </c>
@@ -24690,8 +27664,51 @@
       <c r="AA132" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="133" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB132" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC132" s="6">
+        <f>AC131/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AD132" s="6">
+        <f>AD131/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AE132" s="6">
+        <f>AE131/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AF132" s="6">
+        <f>AF131/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AG132" s="6">
+        <f>AG131/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AH132" s="6">
+        <f>AH131/W125</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI132" s="6">
+        <f>AI131/W125</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AJ132" s="6">
+        <f>AJ131/W125</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AK132" s="6">
+        <f>AK131/W125</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL132" s="6">
+        <f>AL131/W125</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="133" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U133">
         <f>COUNTIF(X55:X60,"sechs Jahre")</f>
         <v>1</v>
@@ -24716,14 +27733,15 @@
         <f>COUNTIF(AA33:AA53,"sechs Jahre")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB133" s="10"/>
+    </row>
+    <row r="134" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U134" s="6">
-        <f>U133/W126</f>
+        <f>U133/W125</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="V134" s="6">
-        <f>V133/W126</f>
+        <f>V133/W125</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="X134" s="6">
@@ -24742,8 +27760,39 @@
         <f>AA133/W121</f>
         <v>9.5238095238095233E-2</v>
       </c>
-    </row>
-    <row r="135" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB134" s="10"/>
+      <c r="AC134" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD134" t="s">
+        <v>502</v>
+      </c>
+      <c r="AE134" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF134" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG134" t="s">
+        <v>502</v>
+      </c>
+      <c r="AH134" t="s">
+        <v>502</v>
+      </c>
+      <c r="AI134" t="s">
+        <v>502</v>
+      </c>
+      <c r="AJ134" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK134" t="s">
+        <v>502</v>
+      </c>
+      <c r="AL134" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="135" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U135" t="s">
         <v>481</v>
       </c>
@@ -24762,8 +27811,51 @@
       <c r="AA135" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="136" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB135" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC135">
+        <f>COUNTIF(AC33:AC53,"Eher unpassend [1]")</f>
+        <v>1</v>
+      </c>
+      <c r="AD135">
+        <f t="shared" ref="AD135:AL135" si="17">COUNTIF(AD33:AD53,"Eher unpassend [1]")</f>
+        <v>0</v>
+      </c>
+      <c r="AE135">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AF135">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AG135">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AH135">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="AI135">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AJ135">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AK135">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="AL135">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U136">
         <f>COUNTIF(X55:X60,"sieben Jahre")</f>
         <v>0</v>
@@ -24788,14 +27880,57 @@
         <f>COUNTIF(AA33:AA53,"sieben Jahre")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB136" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC136" s="6">
+        <f>AC135/W121</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AD136" s="6">
+        <f>AD135/W121</f>
+        <v>0</v>
+      </c>
+      <c r="AE136" s="6">
+        <f>AE135/W121</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AF136" s="6">
+        <f>AF135/W121</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AG136" s="6">
+        <f>AG135/W121</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="AH136" s="6">
+        <f>AH135/W121</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AI136" s="6">
+        <f>AI135/W121</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AJ136" s="6">
+        <f>AJ135/W121</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AK136" s="6">
+        <f>AK135/W121</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL136" s="6">
+        <f>AL135/W121</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="137" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U137" s="6">
-        <f>U136/W126</f>
+        <f>U136/W125</f>
         <v>0</v>
       </c>
       <c r="V137" s="6">
-        <f>V136/W126</f>
+        <f>V136/W125</f>
         <v>0</v>
       </c>
       <c r="X137" s="6">
@@ -24814,8 +27949,51 @@
         <f>AA136/W121</f>
         <v>4.7619047619047616E-2</v>
       </c>
-    </row>
-    <row r="138" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB137" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC137">
+        <f>COUNTIF(AC55:AC60,"Eher unpassend [1]")</f>
+        <v>1</v>
+      </c>
+      <c r="AD137">
+        <f t="shared" ref="AD137:AL137" si="18">COUNTIF(AD55:AD60,"Eher unpassend [1]")</f>
+        <v>2</v>
+      </c>
+      <c r="AE137">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF137">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AG137">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AH137">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AL137">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U138" t="s">
         <v>482</v>
       </c>
@@ -24834,8 +28012,51 @@
       <c r="AA138" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="139" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB138" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC138" s="6">
+        <f>AC137/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AD138" s="6">
+        <f>AD137/W125</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE138" s="6">
+        <f>AE137/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AF138" s="6">
+        <f>AF137/W125</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AG138" s="6">
+        <f>AG137/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AH138" s="6">
+        <f>AH137/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AI138" s="6">
+        <f>AI137/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AJ138" s="6">
+        <f>AJ137/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AK138" s="6">
+        <f>AK137/W125</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL138" s="6">
+        <f>AL137/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="139" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U139">
         <f>COUNTIF(X55:X60,"acht Jahre")</f>
         <v>1</v>
@@ -24860,14 +28081,15 @@
         <f>COUNTIF(AA33:AA53,"acht Jahre")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB139" s="10"/>
+    </row>
+    <row r="140" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U140" s="6">
-        <f>U139/W126</f>
+        <f>U139/W125</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="V140" s="6">
-        <f>V139/W126</f>
+        <f>V139/W125</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="X140" s="6">
@@ -24886,8 +28108,39 @@
         <f>AA139/W121</f>
         <v>4.7619047619047616E-2</v>
       </c>
-    </row>
-    <row r="141" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB140" s="10"/>
+      <c r="AC140" t="s">
+        <v>503</v>
+      </c>
+      <c r="AD140" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE140" t="s">
+        <v>503</v>
+      </c>
+      <c r="AF140" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG140" t="s">
+        <v>503</v>
+      </c>
+      <c r="AH140" t="s">
+        <v>503</v>
+      </c>
+      <c r="AI140" t="s">
+        <v>503</v>
+      </c>
+      <c r="AJ140" t="s">
+        <v>503</v>
+      </c>
+      <c r="AK140" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL140" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="141" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U141" t="s">
         <v>483</v>
       </c>
@@ -24906,8 +28159,51 @@
       <c r="AA141" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="142" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB141" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC141">
+        <f>COUNTIF(AC33:AC53,"neutral [2]")</f>
+        <v>2</v>
+      </c>
+      <c r="AD141">
+        <f t="shared" ref="AD141:AL141" si="19">COUNTIF(AD33:AD53,"neutral [2]")</f>
+        <v>5</v>
+      </c>
+      <c r="AE141">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="AF141">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AG141">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="AH141">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="AI141">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="AJ141">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="AK141">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="AL141">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U142">
         <f>COUNTIF(X55:X60,"neun Jahre")</f>
         <v>0</v>
@@ -24932,14 +28228,57 @@
         <f>COUNTIF(AA33:AA53,"neun Jahre")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB142" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC142" s="6">
+        <f>AC141/W121</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AD142" s="6">
+        <f>AD141/W121</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="AE142" s="6">
+        <f>AE141/W121</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="AF142" s="6">
+        <f>AF141/W121</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AG142" s="6">
+        <f>AG141/W121</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH142" s="6">
+        <f>AH141/W121</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="AI142" s="6">
+        <f>AI141/W121</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="AJ142" s="6">
+        <f>AJ141/W121</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="AK142" s="6">
+        <f>AK141/W121</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="AL142" s="6">
+        <f>AL141/W121</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U143" s="6">
-        <f>U142/W126</f>
+        <f>U142/W125</f>
         <v>0</v>
       </c>
       <c r="V143" s="6">
-        <f>V142/W126</f>
+        <f>V142/W125</f>
         <v>0</v>
       </c>
       <c r="X143" s="6">
@@ -24958,8 +28297,51 @@
         <f>AA142/W121</f>
         <v>9.5238095238095233E-2</v>
       </c>
-    </row>
-    <row r="144" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB143" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC143">
+        <f>COUNTIF(AC55:AC60,"neutral [2]")</f>
+        <v>1</v>
+      </c>
+      <c r="AD143">
+        <f t="shared" ref="AD143:AL143" si="20">COUNTIF(AD55:AD60,"neutral [2]")</f>
+        <v>1</v>
+      </c>
+      <c r="AE143">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AF143">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AG143">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AH143">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AI143">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AJ143">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AK143">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AL143">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U144" t="s">
         <v>484</v>
       </c>
@@ -24978,8 +28360,51 @@
       <c r="AA144" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="145" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB144" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC144" s="6">
+        <f>AC143/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AD144" s="6">
+        <f>AD143/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AE144" s="6">
+        <f>AE143/W125</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF144" s="6">
+        <f>AF143/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AG144" s="6">
+        <f>AG143/W125</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH144" s="6">
+        <f>AH143/W125</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AI144" s="6">
+        <f>AI143/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AJ144" s="6">
+        <f>AJ143/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AK144" s="6">
+        <f>AK143/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AL144" s="6">
+        <f>AL143/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="145" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U145">
         <f>COUNTIF(X55:X60,"zehn Jahre und älter")</f>
         <v>1</v>
@@ -25004,14 +28429,15 @@
         <f>COUNTIF(AA33:AA53,"zehn Jahre und älter")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB145" s="10"/>
+    </row>
+    <row r="146" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U146" s="6">
-        <f>U145/W126</f>
+        <f>U145/W125</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="V146" s="6">
-        <f>V145/W126</f>
+        <f>V145/W125</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="X146" s="6">
@@ -25030,8 +28456,39 @@
         <f>AA145/W121</f>
         <v>0.14285714285714285</v>
       </c>
-    </row>
-    <row r="147" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB146" s="10"/>
+      <c r="AC146" t="s">
+        <v>528</v>
+      </c>
+      <c r="AD146" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE146" t="s">
+        <v>528</v>
+      </c>
+      <c r="AF146" t="s">
+        <v>528</v>
+      </c>
+      <c r="AG146" t="s">
+        <v>528</v>
+      </c>
+      <c r="AH146" t="s">
+        <v>528</v>
+      </c>
+      <c r="AI146" t="s">
+        <v>528</v>
+      </c>
+      <c r="AJ146" t="s">
+        <v>528</v>
+      </c>
+      <c r="AK146" t="s">
+        <v>528</v>
+      </c>
+      <c r="AL146" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="147" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U147">
         <f>SUM(U145,U142,U139,U136,U133,U121,U124,U127,U130)</f>
         <v>6</v>
@@ -25056,8 +28513,51 @@
         <f>SUM(AA145,AA142,AA139,AA136,AA133,AA121,AA124,AA127,AA130)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="148" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB147" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC147">
+        <f>COUNTIF(AC33:AC53,"eher passend [3]")</f>
+        <v>2</v>
+      </c>
+      <c r="AD147">
+        <f t="shared" ref="AD147:AL147" si="21">COUNTIF(AD33:AD53,"eher passend [3]")</f>
+        <v>5</v>
+      </c>
+      <c r="AE147">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AF147">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="AG147">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="AH147">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AI147">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AJ147">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AK147">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AL147">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U148" s="6">
         <f>SUM(U146,U143,U140,U137,U134,U131,U128,U125,U122)</f>
         <v>0.99999999999999989</v>
@@ -25082,13 +28582,144 @@
         <f>SUM(AA146,AA143,AA140,AA137,AA134,AA131,AA128,AA125,AA122)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB148" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC148" s="6">
+        <f>AC147/W121</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AD148" s="6">
+        <f>AD147/W121</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="AE148" s="6">
+        <f>AE147/W121</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="AF148" s="6">
+        <f>AF147/W121</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="AG148" s="6">
+        <f>AG147/W121</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="AH148" s="6">
+        <f>AH147/W121</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AI148" s="6">
+        <f>AI147/W121</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AJ148" s="6">
+        <f>AJ147/W121</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AK148" s="6">
+        <f>AK147/W121</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AL148" s="6">
+        <f>AL147/W121</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="21:38" x14ac:dyDescent="0.35">
+      <c r="AB149" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC149">
+        <f>COUNTIF(AC55:AC60,"eher passend [3]")</f>
+        <v>1</v>
+      </c>
+      <c r="AD149">
+        <f t="shared" ref="AD149:AL149" si="22">COUNTIF(AD55:AD60,"eher passend [3]")</f>
+        <v>2</v>
+      </c>
+      <c r="AE149">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AF149">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AG149">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AH149">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AI149">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AJ149">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AK149">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="21:38" x14ac:dyDescent="0.35">
       <c r="W150" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="151" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB150" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC150" s="6">
+        <f>AC149/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AD150" s="6">
+        <f>AD149/W125</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE150" s="6">
+        <f>AE149/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AF150" s="6">
+        <f>AF149/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AG150" s="6">
+        <f>AG149/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AH150" s="6">
+        <f>AH149/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AI150" s="6">
+        <f>AI149/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AJ150" s="6">
+        <f>AJ149/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AK150" s="6">
+        <f>AK149/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AL150" s="6">
+        <f>AL149/W125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U151" s="5" t="s">
         <v>500</v>
       </c>
@@ -25110,8 +28741,9 @@
       <c r="AA151" s="5" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="152" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB151" s="10"/>
+    </row>
+    <row r="152" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U152">
         <f>COUNTIF(X73:X74,"unter drei Jahren")</f>
         <v>0</v>
@@ -25140,8 +28772,39 @@
         <f>COUNTIF(AA62:AA71,"unter drei Jahre")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB152" s="10"/>
+      <c r="AC152" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD152" t="s">
+        <v>505</v>
+      </c>
+      <c r="AE152" t="s">
+        <v>505</v>
+      </c>
+      <c r="AF152" t="s">
+        <v>505</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>505</v>
+      </c>
+      <c r="AH152" t="s">
+        <v>505</v>
+      </c>
+      <c r="AI152" t="s">
+        <v>505</v>
+      </c>
+      <c r="AJ152" t="s">
+        <v>505</v>
+      </c>
+      <c r="AK152" t="s">
+        <v>505</v>
+      </c>
+      <c r="AL152" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="153" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U153" s="6">
         <f>U152/W156</f>
         <v>0</v>
@@ -25166,8 +28829,51 @@
         <f>AA152/W152</f>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="154" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB153" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC153">
+        <f>COUNTIF(AC33:AC53,"Sehr passend [4]")</f>
+        <v>14</v>
+      </c>
+      <c r="AD153">
+        <f t="shared" ref="AD153:AL153" si="23">COUNTIF(AD33:AD53,"Sehr passend [4]")</f>
+        <v>5</v>
+      </c>
+      <c r="AE153">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="AF153">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="AG153">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AH153">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AI153">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AJ153">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AK153">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AL153">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U154" t="s">
         <v>479</v>
       </c>
@@ -25186,8 +28892,51 @@
       <c r="AA154" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="155" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB154" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC154" s="6">
+        <f>AC153/W121</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD154" s="6">
+        <f>AD153/W121</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="AE154" s="6">
+        <f>AE153/W121</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="AF154" s="6">
+        <f>AF153/W121</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AG154" s="6">
+        <f>AG153/W121</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AH154" s="6">
+        <f>AH153/W121</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AI154" s="6">
+        <f>AI153/W121</f>
+        <v>0</v>
+      </c>
+      <c r="AJ154" s="6">
+        <f>AJ153/W121</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AK154" s="6">
+        <f>AK153/W121</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AL154" s="6">
+        <f>AL153/W121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U155">
         <f>COUNTIF(X73:X74,"drei Jahre")</f>
         <v>0</v>
@@ -25215,8 +28964,51 @@
         <f>COUNTIF(AA62:AA71,"drei Jahre")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB155" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC155">
+        <f>COUNTIF(AC55:AC60,"Sehr passend [4]")</f>
+        <v>3</v>
+      </c>
+      <c r="AD155">
+        <f>COUNTIF(AD55:AD60,"Sehr passend [4]")</f>
+        <v>1</v>
+      </c>
+      <c r="AE155">
+        <f t="shared" ref="AD155:AL155" si="24">COUNTIF(AE55:AE60,"Sehr passend [4]")</f>
+        <v>2</v>
+      </c>
+      <c r="AF155">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AG155">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AH155">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AI155">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AJ155">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AK155">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AL155">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U156" s="6">
         <f>U155/W156</f>
         <v>0</v>
@@ -25245,8 +29037,51 @@
         <f>AA155/W152</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB156" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC156" s="6">
+        <f>AC155/W125</f>
+        <v>0.5</v>
+      </c>
+      <c r="AD156" s="6">
+        <f>AD155/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AE156" s="6">
+        <f>AE155/W125</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF156" s="6">
+        <f>AF155/W125</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AG156" s="6">
+        <f>AG155/W125</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH156" s="6">
+        <f>AH155/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AI156" s="6">
+        <f>AI155/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AJ156" s="6">
+        <f>AJ155/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AK156" s="6">
+        <f>AK155/W125</f>
+        <v>0</v>
+      </c>
+      <c r="AL156" s="6">
+        <f>AL155/W125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U157" t="s">
         <v>478</v>
       </c>
@@ -25265,8 +29100,9 @@
       <c r="AA157" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="158" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB157" s="10"/>
+    </row>
+    <row r="158" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U158">
         <f>COUNTIF(X73:X74,"vier Jahre")</f>
         <v>0</v>
@@ -25291,8 +29127,39 @@
         <f>COUNTIF(AA62:AA71,"vier Jahre")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB158" s="10"/>
+      <c r="AC158" t="s">
+        <v>527</v>
+      </c>
+      <c r="AD158" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE158" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF158" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG158" t="s">
+        <v>527</v>
+      </c>
+      <c r="AH158" t="s">
+        <v>527</v>
+      </c>
+      <c r="AI158" t="s">
+        <v>527</v>
+      </c>
+      <c r="AJ158" t="s">
+        <v>527</v>
+      </c>
+      <c r="AK158" t="s">
+        <v>527</v>
+      </c>
+      <c r="AL158" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="159" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U159" s="6">
         <f>U158/W156</f>
         <v>0</v>
@@ -25317,8 +29184,51 @@
         <f>AA158/W152</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB159" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC159">
+        <f>(AC129*1+AC135*2+AC141*3+AC147*4+AC153*5)/W121</f>
+        <v>4.1904761904761907</v>
+      </c>
+      <c r="AD159">
+        <f>(AD129*1+AD135*2+AD141*3+AD147*4+AD153*5)/W121</f>
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="AE159">
+        <f>(AE129*1+AE135*2+AE141*3+AE147*4+AE153*5)/W121</f>
+        <v>3.5238095238095237</v>
+      </c>
+      <c r="AF159">
+        <f>(AF129*1+AF135*2+AF141*3+AF147*4+AF153*5)/W121</f>
+        <v>4.2380952380952381</v>
+      </c>
+      <c r="AG159">
+        <f>(AG129*1+AG135*2+AG141*3+AG147*4+AG153*5)/W121</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AH159">
+        <f>(AH129*1+AH135*2+AH141*3+AH147*4+AH153*5)/W121</f>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="AI159">
+        <f>(AI129*1+AI135*2+AI141*3+AI147*4+AI153*5)/W121</f>
+        <v>1.7619047619047619</v>
+      </c>
+      <c r="AJ159">
+        <f>(AJ129*1+AJ135*2+AJ141*3+AJ147*4+AJ153*5)/W121</f>
+        <v>2.1904761904761907</v>
+      </c>
+      <c r="AK159">
+        <f>(AK129*1+AK135*2+AK141*3+AK147*4+AK153*5)/W121</f>
+        <v>2.4761904761904763</v>
+      </c>
+      <c r="AL159">
+        <f>(AL129*1+AL135*2+AL141*3+AL147*4+AL153*5)/W121</f>
+        <v>1.7619047619047619</v>
+      </c>
+    </row>
+    <row r="160" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U160" t="s">
         <v>477</v>
       </c>
@@ -25338,7 +29248,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="161" spans="21:27" x14ac:dyDescent="0.35">
+    <row r="161" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U161">
         <f>COUNTIF(X73:X74,"fünf Jahre")</f>
         <v>0</v>
@@ -25363,8 +29273,51 @@
         <f>COUNTIF(AA62:AA71,"fünf Jahre")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB161" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC161">
+        <f>(AC131*1+AC137*2+AC143*3+AC149*4+AC155*5)/W125</f>
+        <v>4</v>
+      </c>
+      <c r="AD161">
+        <f>(AD131*1+AD137*2+AD143*3+AD149*4+AD155*5)/W125</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AE161">
+        <f>(AE131*1+AE137*2+AE143*3+AE149*4+AE155*5)/W125</f>
+        <v>3.5</v>
+      </c>
+      <c r="AF161">
+        <f>(AF131*1+AF137*2+AF143*3+AF149*4+AF155*5)/W125</f>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="AG161">
+        <f>(AG131*1+AG137*2+AG143*3+AG149*4+AG155*5)/W125</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="AH161">
+        <f>(AH131*1+AH137*2+AH143*3+AH149*4+AH155*5)/W125</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AI161">
+        <f>(AI131*1+AI137*2+AI143*3+AI149*4+AI155*5)/W125</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AJ161">
+        <f>(AJ131*1+AJ137*2+AJ143*3+AJ149*4+AJ155*5)/W125</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AK161">
+        <f>(AK131*1+AK137*2+AK143*3+AK149*4+AK155*5)/W125</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="AL161">
+        <f>(AL131*1+AL137*2+AL143*3+AL149*4+AL155*5)/W125</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="162" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U162" s="6">
         <f>U161/W156</f>
         <v>0</v>
@@ -25389,8 +29342,51 @@
         <f>AA161/W152</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB162" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC162">
+        <f>SUM(AC129,AC135,AC141,AC147,AC153)</f>
+        <v>21</v>
+      </c>
+      <c r="AD162">
+        <f>SUM(AD129,AD135,AD141,AD147,AD153)</f>
+        <v>21</v>
+      </c>
+      <c r="AE162">
+        <f>SUM(AE129,AE135,AE141,AE147,AE153)</f>
+        <v>21</v>
+      </c>
+      <c r="AF162">
+        <f>SUM(AF129,AF135,AF141,AF147,AF153)</f>
+        <v>21</v>
+      </c>
+      <c r="AG162">
+        <f>SUM(AG129,AG135,AG141,AG147,AG153)</f>
+        <v>21</v>
+      </c>
+      <c r="AH162">
+        <f>SUM(AH129,AH135,AH141,AH147,AH153)</f>
+        <v>21</v>
+      </c>
+      <c r="AI162">
+        <f>SUM(AI129,AI135,AI141,AI147,AI153)</f>
+        <v>21</v>
+      </c>
+      <c r="AJ162">
+        <f>SUM(AJ129,AJ135,AJ141,AJ147,AJ153)</f>
+        <v>21</v>
+      </c>
+      <c r="AK162">
+        <f>SUM(AK129,AK135,AK141,AK147,AK153)</f>
+        <v>21</v>
+      </c>
+      <c r="AL162">
+        <f>SUM(AL129,AL135,AL141,AL147,AL153)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U163" t="s">
         <v>480</v>
       </c>
@@ -25409,8 +29405,51 @@
       <c r="AA163" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="164" spans="21:27" x14ac:dyDescent="0.35">
+      <c r="AB163" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="AC163">
+        <f>SUM(AC131,AC137,AC143,AC149,AC155)</f>
+        <v>6</v>
+      </c>
+      <c r="AD163">
+        <f>SUM(AD131,AD137,AD143,AD149,AD155)</f>
+        <v>6</v>
+      </c>
+      <c r="AE163">
+        <f>SUM(AE131,AE137,AE143,AE149,AE155)</f>
+        <v>6</v>
+      </c>
+      <c r="AF163">
+        <f>SUM(AF131,AF137,AF143,AF149,AF155)</f>
+        <v>6</v>
+      </c>
+      <c r="AG163">
+        <f>SUM(AG131,AG137,AG143,AG149,AG155)</f>
+        <v>6</v>
+      </c>
+      <c r="AH163">
+        <f>SUM(AH131,AH137,AH143,AH149,AH155)</f>
+        <v>6</v>
+      </c>
+      <c r="AI163">
+        <f>SUM(AI131,AI137,AI143,AI149,AI155)</f>
+        <v>6</v>
+      </c>
+      <c r="AJ163">
+        <f>SUM(AJ131,AJ137,AJ143,AJ149,AJ155)</f>
+        <v>6</v>
+      </c>
+      <c r="AK163">
+        <f>SUM(AK131,AK137,AK143,AK149,AK155)</f>
+        <v>6</v>
+      </c>
+      <c r="AL163">
+        <f>SUM(AL131,AL137,AL143,AL149,AL155)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U164">
         <f>COUNTIF(X73:X74,"sechs Jahre")</f>
         <v>2</v>
@@ -25436,7 +29475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="21:27" x14ac:dyDescent="0.35">
+    <row r="165" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U165" s="6">
         <f>U164/W156</f>
         <v>1</v>
@@ -25462,7 +29501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="21:27" x14ac:dyDescent="0.35">
+    <row r="166" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U166" t="s">
         <v>481</v>
       </c>
@@ -25482,7 +29521,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="167" spans="21:27" x14ac:dyDescent="0.35">
+    <row r="167" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U167">
         <f>COUNTIF(X73:X74,"sieben Jahre")</f>
         <v>0</v>
@@ -25508,7 +29547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="21:27" x14ac:dyDescent="0.35">
+    <row r="168" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U168" s="6">
         <f>U167/W156</f>
         <v>0</v>
@@ -25534,7 +29573,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="169" spans="21:27" x14ac:dyDescent="0.35">
+    <row r="169" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U169" t="s">
         <v>482</v>
       </c>
@@ -25554,7 +29593,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="170" spans="21:27" x14ac:dyDescent="0.35">
+    <row r="170" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U170">
         <f>COUNTIF(X73:X74,"acht Jahre")</f>
         <v>0</v>
@@ -25580,7 +29619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="21:27" x14ac:dyDescent="0.35">
+    <row r="171" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U171" s="6">
         <f>U170/W156</f>
         <v>0</v>
@@ -25606,7 +29645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="21:27" x14ac:dyDescent="0.35">
+    <row r="172" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U172" t="s">
         <v>483</v>
       </c>
@@ -25626,7 +29665,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="173" spans="21:27" x14ac:dyDescent="0.35">
+    <row r="173" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U173">
         <f>COUNTIF(X73:X74,"neun Jahre")</f>
         <v>0</v>
@@ -25652,7 +29691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="21:27" x14ac:dyDescent="0.35">
+    <row r="174" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U174" s="6">
         <f>U173/W156</f>
         <v>0</v>
@@ -25678,7 +29717,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="175" spans="21:27" x14ac:dyDescent="0.35">
+    <row r="175" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U175" t="s">
         <v>484</v>
       </c>
@@ -25698,7 +29737,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="176" spans="21:27" x14ac:dyDescent="0.35">
+    <row r="176" spans="21:38" x14ac:dyDescent="0.35">
       <c r="U176">
         <f>COUNTIF(X73:X74,"zehn Jahre und älter")</f>
         <v>0</v>
@@ -26301,10 +30340,26 @@
     <sortCondition ref="Z3:Z85"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F38EF43-BB35-4395-A9FF-1EA0BCAD0259}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
@@ -27094,7 +31149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C241"/>
   <sheetViews>
@@ -29760,7 +33815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>

--- a/ausarbeitung/datensatz1.xlsx
+++ b/ausarbeitung/datensatz1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\post_\Documents\Uni\Masterarbeit\waldemar\ausarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A55716-28B1-42CF-BDEF-161D424E2CB2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABBB85F-E5EE-464D-8FFA-1634002EEC00}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6652" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6676" uniqueCount="543">
   <si>
     <t>CASE</t>
   </si>
@@ -1663,6 +1663,39 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Median kinderlose</t>
+  </si>
+  <si>
+    <t>Median Eltern</t>
+  </si>
+  <si>
+    <t>gemeinsam</t>
+  </si>
+  <si>
+    <t>allein</t>
+  </si>
+  <si>
+    <t>real gemeinsam</t>
+  </si>
+  <si>
+    <t>real allein</t>
+  </si>
+  <si>
+    <t>acht/neun Jahre</t>
+  </si>
+  <si>
+    <t>sechs</t>
+  </si>
+  <si>
+    <t>unter drei</t>
+  </si>
+  <si>
+    <t>fünf/sechs</t>
+  </si>
+  <si>
+    <t>zehn und älter</t>
   </si>
 </sst>
 </file>
@@ -15482,9 +15515,9 @@
   <dimension ref="A1:BT210"/>
   <sheetViews>
     <sheetView topLeftCell="M2" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G2" sqref="G2"/>
-      <selection pane="bottomLeft" activeCell="AG2" sqref="AG2"/>
+      <selection pane="bottomLeft" activeCell="T100" sqref="T100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15496,7 +15529,9 @@
     <col min="10" max="10" width="13.6328125" customWidth="1"/>
     <col min="11" max="11" width="15.453125" customWidth="1"/>
     <col min="12" max="12" width="13.6328125" customWidth="1"/>
-    <col min="13" max="21" width="10.90625" customWidth="1"/>
+    <col min="13" max="15" width="10.90625" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="21" width="10.90625" customWidth="1"/>
     <col min="22" max="22" width="10.7265625" customWidth="1"/>
     <col min="23" max="23" width="13.6328125" customWidth="1"/>
     <col min="24" max="24" width="16.81640625" customWidth="1"/>
@@ -25212,6 +25247,12 @@
       </c>
     </row>
     <row r="89" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="Q89" t="s">
+        <v>533</v>
+      </c>
+      <c r="S89" t="s">
+        <v>532</v>
+      </c>
       <c r="U89" s="5" t="s">
         <v>500</v>
       </c>
@@ -25265,12 +25306,21 @@
       </c>
     </row>
     <row r="90" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="P90" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>478</v>
+      </c>
+      <c r="S90" t="s">
+        <v>477</v>
+      </c>
       <c r="U90">
-        <f>COUNTIF(X12:X31,"unter drei Jahren")</f>
-        <v>0</v>
+        <f>COUNTIF(X12:X31,"unter drei Jahre")</f>
+        <v>1</v>
       </c>
       <c r="V90">
-        <f>COUNTIF(X12:X31,"unter drei Jahren")</f>
+        <f>COUNTIF(Y12:Y31,"unter drei Jahren")</f>
         <v>0</v>
       </c>
       <c r="W90">
@@ -25325,9 +25375,18 @@
       </c>
     </row>
     <row r="91" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="P91" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>539</v>
+      </c>
+      <c r="S91" t="s">
+        <v>538</v>
+      </c>
       <c r="U91" s="6">
         <f>U90/W94</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="V91" s="6">
         <f>V90/W94</f>
@@ -25394,6 +25453,12 @@
       </c>
     </row>
     <row r="92" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="P92" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>540</v>
+      </c>
       <c r="U92" t="s">
         <v>479</v>
       </c>
@@ -25457,13 +25522,19 @@
       </c>
     </row>
     <row r="93" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="P93" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>540</v>
+      </c>
       <c r="U93">
         <f>COUNTIF(X12:X31,"drei Jahre")</f>
         <v>1</v>
       </c>
       <c r="V93">
-        <f>COUNTIF(X12:X31,"drei Jahre")</f>
-        <v>1</v>
+        <f>COUNTIF(Y12:Y31,"drei Jahre")</f>
+        <v>0</v>
       </c>
       <c r="W93" t="s">
         <v>514</v>
@@ -25535,7 +25606,7 @@
       </c>
       <c r="V94" s="6">
         <f>V93/W94</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="W94" s="8">
         <f>COUNTA(X12:X31)</f>
@@ -25628,8 +25699,8 @@
         <v>2</v>
       </c>
       <c r="V96">
-        <f>COUNTIF(X12:X31,"vier Jahre")</f>
-        <v>2</v>
+        <f>COUNTIF(Y12:Y31,"vier Jahre")</f>
+        <v>0</v>
       </c>
       <c r="X96">
         <f>COUNTIF(X3:X10,"vier Jahre")</f>
@@ -25686,7 +25757,7 @@
       </c>
       <c r="V97" s="6">
         <f>V96/W94</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X97" s="6">
         <f>X96/W90</f>
@@ -25817,8 +25888,8 @@
         <v>9</v>
       </c>
       <c r="V99">
-        <f>COUNTIF(X12:X31,"fünf Jahre")</f>
-        <v>9</v>
+        <f>COUNTIF(Y12:Y31,"fünf Jahre")</f>
+        <v>2</v>
       </c>
       <c r="X99">
         <f>COUNTIF(X3:X10,"fünf Jahre")</f>
@@ -25887,7 +25958,7 @@
       </c>
       <c r="V100" s="6">
         <f>V99/W94</f>
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="X100" s="6">
         <f>X99/W90</f>
@@ -25976,8 +26047,8 @@
         <v>3</v>
       </c>
       <c r="V102">
-        <f>COUNTIF(X12:X31,"sechs Jahre")</f>
-        <v>3</v>
+        <f>COUNTIF(Y12:Y31,"sechs Jahre")</f>
+        <v>2</v>
       </c>
       <c r="X102">
         <f>COUNTIF(X3:X10,"sechs Jahre")</f>
@@ -26034,7 +26105,7 @@
       </c>
       <c r="V103" s="6">
         <f>V102/W94</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="X103" s="6">
         <f>X102/W90</f>
@@ -26165,8 +26236,8 @@
         <v>2</v>
       </c>
       <c r="V105">
-        <f>COUNTIF(X12:X31,"sieben Jahre")</f>
-        <v>2</v>
+        <f>COUNTIF(Y12:Y31,"sieben Jahre")</f>
+        <v>3</v>
       </c>
       <c r="X105">
         <f>COUNTIF(X3:X10,"sieben Jahre")</f>
@@ -26235,7 +26306,7 @@
       </c>
       <c r="V106" s="6">
         <f>V105/W94</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="X106" s="6">
         <f>X105/W90</f>
@@ -26324,8 +26395,8 @@
         <v>2</v>
       </c>
       <c r="V108">
-        <f>COUNTIF(X12:X31,"acht Jahre")</f>
-        <v>2</v>
+        <f>COUNTIF(Y12:Y31,"acht Jahre")</f>
+        <v>3</v>
       </c>
       <c r="X108">
         <f>COUNTIF(X3:X10,"acht Jahre")</f>
@@ -26382,7 +26453,7 @@
       </c>
       <c r="V109" s="6">
         <f>V108/W94</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="X109" s="6">
         <f>X108/W90</f>
@@ -26513,8 +26584,8 @@
         <v>0</v>
       </c>
       <c r="V111">
-        <f>COUNTIF(X12:X31,"neun Jahre")</f>
-        <v>0</v>
+        <f>COUNTIF(Y12:Y31,"neun Jahre")</f>
+        <v>2</v>
       </c>
       <c r="X111">
         <f>COUNTIF(X3:X10,"neun Jahre")</f>
@@ -26583,7 +26654,7 @@
       </c>
       <c r="V112" s="6">
         <f>V111/W94</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X112" s="6">
         <f>X111/W90</f>
@@ -26645,7 +26716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="113" spans="16:38" x14ac:dyDescent="0.35">
       <c r="U113" t="s">
         <v>484</v>
       </c>
@@ -26666,14 +26737,14 @@
       </c>
       <c r="AB113" s="10"/>
     </row>
-    <row r="114" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="114" spans="16:38" x14ac:dyDescent="0.35">
       <c r="U114">
         <f>COUNTIF(X12:X31,"zehn Jahre und älter")</f>
         <v>0</v>
       </c>
       <c r="V114">
-        <f>COUNTIF(X12:X31,"zehn Jahre und älter")</f>
-        <v>0</v>
+        <f>COUNTIF(Y12:Y31,"zehn Jahre und älter")</f>
+        <v>8</v>
       </c>
       <c r="X114">
         <f>COUNTIF(X3:X10,"zehn Jahre und älter")</f>
@@ -26723,14 +26794,14 @@
         <v>505</v>
       </c>
     </row>
-    <row r="115" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="115" spans="16:38" x14ac:dyDescent="0.35">
       <c r="U115" s="6">
         <f>U114/W94</f>
         <v>0</v>
       </c>
       <c r="V115" s="6">
         <f>V114/W94</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X115" s="6">
         <f>X114/W90</f>
@@ -26792,14 +26863,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="116" spans="16:38" x14ac:dyDescent="0.35">
       <c r="U116">
         <f>SUM(U114,U111,U108,U105,U102,U90,U93,U96,U99)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V116">
         <f>SUM(V90,V93,V96,V99,V102,V105,V108,V111,V114)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X116">
         <f>SUM(X114,X111,X108,X105,X102,X90,X93,X96,X99)</f>
@@ -26861,14 +26932,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="117" spans="16:38" x14ac:dyDescent="0.35">
       <c r="U117" s="6">
         <f>SUM(U115,U112,U109,U106,U103,U100,U97,U94,U91)</f>
-        <v>0.95000000000000007</v>
+        <v>1</v>
       </c>
       <c r="V117" s="6">
         <f>SUM(V115,V112,V109,V106,V103,V100,V97,V94,V91)</f>
-        <v>0.95000000000000007</v>
+        <v>1</v>
       </c>
       <c r="X117" s="6">
         <f>SUM(X115,X112,X109,X106,X103,X100,X97,X94,X91)</f>
@@ -26890,47 +26961,47 @@
         <v>516</v>
       </c>
       <c r="AC117">
-        <f>COUNTIF(AC12:AC31,"Sehr passend [4]")</f>
+        <f t="shared" ref="AC117:AL117" si="15">COUNTIF(AC12:AC31,"Sehr passend [4]")</f>
         <v>11</v>
       </c>
       <c r="AD117">
-        <f>COUNTIF(AD12:AD31,"Sehr passend [4]")</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AE117">
-        <f>COUNTIF(AE12:AE31,"Sehr passend [4]")</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AF117">
-        <f>COUNTIF(AF12:AF31,"Sehr passend [4]")</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="AG117">
-        <f>COUNTIF(AG12:AG31,"Sehr passend [4]")</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AH117">
-        <f>COUNTIF(AH12:AH31,"Sehr passend [4]")</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AI117">
-        <f>COUNTIF(AI12:AI31,"Sehr passend [4]")</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AJ117">
-        <f>COUNTIF(AJ12:AJ31,"Sehr passend [4]")</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AK117">
-        <f>COUNTIF(AK12:AK31,"Sehr passend [4]")</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL117">
-        <f>COUNTIF(AL12:AL31,"Sehr passend [4]")</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="118" spans="16:38" x14ac:dyDescent="0.35">
       <c r="AB118" s="10" t="s">
         <v>531</v>
       </c>
@@ -26975,13 +27046,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="119" spans="16:38" x14ac:dyDescent="0.35">
       <c r="W119" t="s">
         <v>510</v>
       </c>
       <c r="AB119" s="10"/>
     </row>
-    <row r="120" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="120" spans="16:38" x14ac:dyDescent="0.35">
+      <c r="Q120" t="s">
+        <v>533</v>
+      </c>
+      <c r="S120" t="s">
+        <v>532</v>
+      </c>
       <c r="U120" s="5" t="s">
         <v>500</v>
       </c>
@@ -27035,13 +27112,22 @@
         <v>527</v>
       </c>
     </row>
-    <row r="121" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="121" spans="16:38" x14ac:dyDescent="0.35">
+      <c r="P121" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>477</v>
+      </c>
+      <c r="S121" t="s">
+        <v>541</v>
+      </c>
       <c r="U121">
         <f>COUNTIF(X55:X60,"unter drei Jahren")</f>
         <v>0</v>
       </c>
       <c r="V121">
-        <f>COUNTIF(X55:X60,"unter drei Jahren")</f>
+        <f>COUNTIF(Y55:Y60,"unter drei Jahren")</f>
         <v>0</v>
       </c>
       <c r="W121">
@@ -27108,7 +27194,16 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="122" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="122" spans="16:38" x14ac:dyDescent="0.35">
+      <c r="P122" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>483</v>
+      </c>
+      <c r="S122" t="s">
+        <v>542</v>
+      </c>
       <c r="U122" s="6">
         <f>U121/W125</f>
         <v>0</v>
@@ -27134,7 +27229,13 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="123" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="123" spans="16:38" x14ac:dyDescent="0.35">
+      <c r="P123" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>477</v>
+      </c>
       <c r="U123" t="s">
         <v>479</v>
       </c>
@@ -27197,13 +27298,19 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="124" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="124" spans="16:38" x14ac:dyDescent="0.35">
+      <c r="P124" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>477</v>
+      </c>
       <c r="U124">
         <f>COUNTIF(X55:X60,"drei Jahre")</f>
         <v>0</v>
       </c>
       <c r="V124">
-        <f>COUNTIF(X55:X60,"drei Jahre")</f>
+        <f>COUNTIF(Y55:Y60,"drei Jahre")</f>
         <v>0</v>
       </c>
       <c r="W124" t="s">
@@ -27229,47 +27336,47 @@
         <v>529</v>
       </c>
       <c r="AC124">
-        <f>SUM(AC91,AC97,AC103,AC109,AC115)</f>
+        <f t="shared" ref="AC124:AL124" si="16">SUM(AC91,AC97,AC103,AC109,AC115)</f>
         <v>8</v>
       </c>
       <c r="AD124">
-        <f>SUM(AD91,AD97,AD103,AD109,AD115)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="AE124">
-        <f>SUM(AE91,AE97,AE103,AE109,AE115)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="AF124">
-        <f>SUM(AF91,AF97,AF103,AF109,AF115)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="AG124">
-        <f>SUM(AG91,AG97,AG103,AG109,AG115)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="AH124">
-        <f>SUM(AH91,AH97,AH103,AH109,AH115)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="AI124">
-        <f>SUM(AI91,AI97,AI103,AI109,AI115)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="AJ124">
-        <f>SUM(AJ91,AJ97,AJ103,AJ109,AJ115)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="AK124">
-        <f>SUM(AK91,AK97,AK103,AK109,AK115)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="AL124">
-        <f>SUM(AL91,AL97,AL103,AL109,AL115)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="125" spans="16:38" x14ac:dyDescent="0.35">
       <c r="U125" s="6">
         <f>U124/W125</f>
         <v>0</v>
@@ -27302,47 +27409,47 @@
         <v>530</v>
       </c>
       <c r="AC125">
-        <f>SUM(AC93,AC99,AC105,AC111,AC117)</f>
+        <f t="shared" ref="AC125:AL125" si="17">SUM(AC93,AC99,AC105,AC111,AC117)</f>
         <v>20</v>
       </c>
       <c r="AD125">
-        <f>SUM(AD93,AD99,AD105,AD111,AD117)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="AE125">
-        <f>SUM(AE93,AE99,AE105,AE111,AE117)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="AF125">
-        <f>SUM(AF93,AF99,AF105,AF111,AF117)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="AG125">
-        <f>SUM(AG93,AG99,AG105,AG111,AG117)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="AH125">
-        <f>SUM(AH93,AH99,AH105,AH111,AH117)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="AI125">
-        <f>SUM(AI93,AI99,AI105,AI111,AI117)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="AJ125">
-        <f>SUM(AJ93,AJ99,AJ105,AJ111,AJ117)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="AK125">
-        <f>SUM(AK93,AK99,AK105,AK111,AK117)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="AL125">
-        <f>SUM(AL93,AL99,AL105,AL111,AL117)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="126" spans="16:38" x14ac:dyDescent="0.35">
       <c r="U126" t="s">
         <v>478</v>
       </c>
@@ -27362,14 +27469,14 @@
         <v>478</v>
       </c>
     </row>
-    <row r="127" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="127" spans="16:38" x14ac:dyDescent="0.35">
       <c r="U127">
         <f>COUNTIF(X55:X60,"vier Jahre")</f>
         <v>1</v>
       </c>
       <c r="V127">
-        <f>COUNTIF(X55:X60,"vier Jahre")</f>
-        <v>1</v>
+        <f>COUNTIF(Y55:Y60,"vier Jahre")</f>
+        <v>0</v>
       </c>
       <c r="X127">
         <f>COUNTIF(X33:X53,"vier Jahre")</f>
@@ -27388,14 +27495,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="21:38" x14ac:dyDescent="0.35">
+    <row r="128" spans="16:38" x14ac:dyDescent="0.35">
       <c r="U128" s="6">
         <f>U127/W125</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="V128" s="6">
         <f>V127/W125</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="X128" s="6">
         <f>X127/W121</f>
@@ -27471,39 +27578,39 @@
         <v>2</v>
       </c>
       <c r="AD129">
-        <f t="shared" ref="AD129:AL129" si="15">COUNTIF(AD33:AD53,"Absolut unpassend [0]")</f>
+        <f t="shared" ref="AD129:AL129" si="18">COUNTIF(AD33:AD53,"Absolut unpassend [0]")</f>
         <v>6</v>
       </c>
       <c r="AE129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AF129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AG129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="AH129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="AI129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="AJ129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="AK129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="AL129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
     </row>
@@ -27513,8 +27620,8 @@
         <v>2</v>
       </c>
       <c r="V130">
-        <f>COUNTIF(X55:X60,"fünf Jahre")</f>
-        <v>2</v>
+        <f>COUNTIF(Y55:Y60,"fünf Jahre")</f>
+        <v>0</v>
       </c>
       <c r="X130">
         <f>COUNTIF(X33:X53,"fünf Jahre")</f>
@@ -27583,7 +27690,7 @@
       </c>
       <c r="V131" s="6">
         <f>V130/W125</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="X131" s="6">
         <f>X130/W121</f>
@@ -27609,39 +27716,39 @@
         <v>0</v>
       </c>
       <c r="AD131">
-        <f t="shared" ref="AD131:AL131" si="16">COUNTIF(AD55:AD60,"Absolut unpassend [0]")</f>
+        <f t="shared" ref="AD131:AL131" si="19">COUNTIF(AD55:AD60,"Absolut unpassend [0]")</f>
         <v>0</v>
       </c>
       <c r="AE131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AF131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AG131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AH131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="AI131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="AJ131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="AK131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AL131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -27714,8 +27821,8 @@
         <v>1</v>
       </c>
       <c r="V133">
-        <f>COUNTIF(X55:X60,"sechs Jahre")</f>
-        <v>1</v>
+        <f>COUNTIF(Y55:Y60,"sechs Jahre")</f>
+        <v>0</v>
       </c>
       <c r="X133">
         <f>COUNTIF(X33:X53,"sechs Jahre")</f>
@@ -27742,7 +27849,7 @@
       </c>
       <c r="V134" s="6">
         <f>V133/W125</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="X134" s="6">
         <f>X133/W121</f>
@@ -27819,39 +27926,39 @@
         <v>1</v>
       </c>
       <c r="AD135">
-        <f t="shared" ref="AD135:AL135" si="17">COUNTIF(AD33:AD53,"Eher unpassend [1]")</f>
+        <f t="shared" ref="AD135:AL135" si="20">COUNTIF(AD33:AD53,"Eher unpassend [1]")</f>
         <v>0</v>
       </c>
       <c r="AE135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AF135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AG135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AH135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="AI135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AJ135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AK135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="AL135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
     </row>
@@ -27861,7 +27968,7 @@
         <v>0</v>
       </c>
       <c r="V136">
-        <f>COUNTIF(X55:X60,"sieben Jahre")</f>
+        <f>COUNTIF(Y55:Y60,"sieben Jahre")</f>
         <v>0</v>
       </c>
       <c r="X136">
@@ -27957,39 +28064,39 @@
         <v>1</v>
       </c>
       <c r="AD137">
-        <f t="shared" ref="AD137:AL137" si="18">COUNTIF(AD55:AD60,"Eher unpassend [1]")</f>
+        <f t="shared" ref="AD137:AL137" si="21">COUNTIF(AD55:AD60,"Eher unpassend [1]")</f>
         <v>2</v>
       </c>
       <c r="AE137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AF137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AG137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AH137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AI137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AJ137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AL137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -28062,8 +28169,8 @@
         <v>1</v>
       </c>
       <c r="V139">
-        <f>COUNTIF(X55:X60,"acht Jahre")</f>
-        <v>1</v>
+        <f>COUNTIF(Y55:Y60,"acht Jahre")</f>
+        <v>0</v>
       </c>
       <c r="X139">
         <f>COUNTIF(X33:X53,"acht Jahre")</f>
@@ -28090,7 +28197,7 @@
       </c>
       <c r="V140" s="6">
         <f>V139/W125</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="X140" s="6">
         <f>X139/W121</f>
@@ -28167,39 +28274,39 @@
         <v>2</v>
       </c>
       <c r="AD141">
-        <f t="shared" ref="AD141:AL141" si="19">COUNTIF(AD33:AD53,"neutral [2]")</f>
+        <f t="shared" ref="AD141:AL141" si="22">COUNTIF(AD33:AD53,"neutral [2]")</f>
         <v>5</v>
       </c>
       <c r="AE141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="AF141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="AG141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="AH141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="AI141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="AJ141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="AK141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="AL141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
     </row>
@@ -28209,8 +28316,8 @@
         <v>0</v>
       </c>
       <c r="V142">
-        <f>COUNTIF(X55:X60,"neun Jahre")</f>
-        <v>0</v>
+        <f>COUNTIF(Y55:Y60,"neun Jahre")</f>
+        <v>1</v>
       </c>
       <c r="X142">
         <f>COUNTIF(X33:X53,"neun Jahre")</f>
@@ -28279,7 +28386,7 @@
       </c>
       <c r="V143" s="6">
         <f>V142/W125</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="X143" s="6">
         <f>X142/W121</f>
@@ -28305,39 +28412,39 @@
         <v>1</v>
       </c>
       <c r="AD143">
-        <f t="shared" ref="AD143:AL143" si="20">COUNTIF(AD55:AD60,"neutral [2]")</f>
+        <f t="shared" ref="AD143:AL143" si="23">COUNTIF(AD55:AD60,"neutral [2]")</f>
         <v>1</v>
       </c>
       <c r="AE143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AF143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AG143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AH143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AI143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AJ143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AK143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AL143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -28410,8 +28517,8 @@
         <v>1</v>
       </c>
       <c r="V145">
-        <f>COUNTIF(X55:X60,"zehn Jahre und älter")</f>
-        <v>1</v>
+        <f>COUNTIF(Y55:Y60,"zehn Jahre und älter")</f>
+        <v>5</v>
       </c>
       <c r="X145">
         <f>COUNTIF(X33:X53,"zehn Jahre und älter")</f>
@@ -28438,7 +28545,7 @@
       </c>
       <c r="V146" s="6">
         <f>V145/W125</f>
-        <v>0.16666666666666666</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="X146" s="6">
         <f>X145/W121</f>
@@ -28521,39 +28628,39 @@
         <v>2</v>
       </c>
       <c r="AD147">
-        <f t="shared" ref="AD147:AL147" si="21">COUNTIF(AD33:AD53,"eher passend [3]")</f>
+        <f t="shared" ref="AD147:AL147" si="24">COUNTIF(AD33:AD53,"eher passend [3]")</f>
         <v>5</v>
       </c>
       <c r="AE147">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="AF147">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="AG147">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="AH147">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AI147">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AJ147">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AK147">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AL147">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
     </row>
@@ -28564,7 +28671,7 @@
       </c>
       <c r="V148" s="6">
         <f>SUM(V146,V143,V140,V137,V134,V131,V128,V125,V122)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="X148" s="6">
         <f>SUM(X146,X143,X140,X137,X134,X131,X128,X125,X122)</f>
@@ -28635,39 +28742,39 @@
         <v>1</v>
       </c>
       <c r="AD149">
-        <f t="shared" ref="AD149:AL149" si="22">COUNTIF(AD55:AD60,"eher passend [3]")</f>
+        <f t="shared" ref="AD149:AL149" si="25">COUNTIF(AD55:AD60,"eher passend [3]")</f>
         <v>2</v>
       </c>
       <c r="AE149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AF149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AG149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AH149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AI149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AJ149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AK149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AL149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -28837,39 +28944,39 @@
         <v>14</v>
       </c>
       <c r="AD153">
-        <f t="shared" ref="AD153:AL153" si="23">COUNTIF(AD33:AD53,"Sehr passend [4]")</f>
+        <f t="shared" ref="AD153:AL153" si="26">COUNTIF(AD33:AD53,"Sehr passend [4]")</f>
         <v>5</v>
       </c>
       <c r="AE153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="AF153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="AG153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AH153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AI153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AJ153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AK153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="AL153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -28976,35 +29083,35 @@
         <v>1</v>
       </c>
       <c r="AE155">
-        <f t="shared" ref="AD155:AL155" si="24">COUNTIF(AE55:AE60,"Sehr passend [4]")</f>
+        <f t="shared" ref="AE155:AL155" si="27">COUNTIF(AE55:AE60,"Sehr passend [4]")</f>
         <v>2</v>
       </c>
       <c r="AF155">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AG155">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AH155">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AI155">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AJ155">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AK155">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL155">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -29346,43 +29453,43 @@
         <v>529</v>
       </c>
       <c r="AC162">
-        <f>SUM(AC129,AC135,AC141,AC147,AC153)</f>
+        <f t="shared" ref="AC162:AL162" si="28">SUM(AC129,AC135,AC141,AC147,AC153)</f>
         <v>21</v>
       </c>
       <c r="AD162">
-        <f>SUM(AD129,AD135,AD141,AD147,AD153)</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="AE162">
-        <f>SUM(AE129,AE135,AE141,AE147,AE153)</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="AF162">
-        <f>SUM(AF129,AF135,AF141,AF147,AF153)</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="AG162">
-        <f>SUM(AG129,AG135,AG141,AG147,AG153)</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="AH162">
-        <f>SUM(AH129,AH135,AH141,AH147,AH153)</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="AI162">
-        <f>SUM(AI129,AI135,AI141,AI147,AI153)</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="AJ162">
-        <f>SUM(AJ129,AJ135,AJ141,AJ147,AJ153)</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="AK162">
-        <f>SUM(AK129,AK135,AK141,AK147,AK153)</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="AL162">
-        <f>SUM(AL129,AL135,AL141,AL147,AL153)</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
     </row>
@@ -29409,43 +29516,43 @@
         <v>530</v>
       </c>
       <c r="AC163">
-        <f>SUM(AC131,AC137,AC143,AC149,AC155)</f>
+        <f t="shared" ref="AC163:AL163" si="29">SUM(AC131,AC137,AC143,AC149,AC155)</f>
         <v>6</v>
       </c>
       <c r="AD163">
-        <f>SUM(AD131,AD137,AD143,AD149,AD155)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="AE163">
-        <f>SUM(AE131,AE137,AE143,AE149,AE155)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="AF163">
-        <f>SUM(AF131,AF137,AF143,AF149,AF155)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="AG163">
-        <f>SUM(AG131,AG137,AG143,AG149,AG155)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="AH163">
-        <f>SUM(AH131,AH137,AH143,AH149,AH155)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="AI163">
-        <f>SUM(AI131,AI137,AI143,AI149,AI155)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="AJ163">
-        <f>SUM(AJ131,AJ137,AJ143,AJ149,AJ155)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="AK163">
-        <f>SUM(AK131,AK137,AK143,AK149,AK155)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="AL163">
-        <f>SUM(AL131,AL137,AL143,AL149,AL155)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
     </row>
@@ -30348,7 +30455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F38EF43-BB35-4395-A9FF-1EA0BCAD0259}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
